--- a/excel tipstersbets.xlsx
+++ b/excel tipstersbets.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{B0EC8CFD-76D2-401C-B83B-3538F33E9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D807E2-ABEE-4145-A859-E5194869379E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
-    <numFmt numFmtId="173" formatCode="\+#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
+    <numFmt numFmtId="165" formatCode="\+#,##0.00\ [$MXN];[Red]\-#,##0.00\ [$MXN]"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1298,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1322,11 +1322,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,6 +1678,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2074,9 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2716,7 +2717,6 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="21"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -3675,7 +3675,6 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="21"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -3880,7 +3879,6 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="21"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -9404,7 +9402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968FCD4-0E43-448B-A959-704F8BE365F1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/excel tipstersbets.xlsx
+++ b/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{B0EC8CFD-76D2-401C-B83B-3538F33E9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D807E2-ABEE-4145-A859-E5194869379E}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{B0EC8CFD-76D2-401C-B83B-3538F33E9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6993DAAE-FE57-49E3-8EDA-ABC59E1B389A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="373">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -1089,9 +1089,6 @@
   </si>
   <si>
     <t>Datsq9</t>
-  </si>
-  <si>
-    <t>Tipster</t>
   </si>
   <si>
     <t>Grupo 7</t>
@@ -1740,7 +1737,7 @@
     <tableColumn id="8" xr3:uid="{FABE7E00-E818-43A0-A114-F7715817F336}" name="Grupo 5"/>
     <tableColumn id="6" xr3:uid="{3A4CBAFE-32CC-4DBC-9EF9-EC22760456E3}" name="Grupo 6"/>
     <tableColumn id="7" xr3:uid="{A658CBDF-FE7C-4DC9-AA24-1D197AB4D0A9}" name="Grupo 7"/>
-    <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Tipster"/>
+    <tableColumn id="2" xr3:uid="{84A39D50-FB6C-44AB-BAAC-35F876CCE72D}" name="Nombre"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2077,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2664,7 +2661,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>134</v>
@@ -2709,7 +2706,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>134</v>
@@ -3430,7 +3427,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>134</v>
@@ -3594,7 +3591,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>134</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="1"/>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>134</v>
@@ -9474,8 +9471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ACB4A5-E03C-43BF-BC7E-10435F47AF56}">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H184"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9495,25 +9492,25 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1" t="s">
-        <v>350</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13473,21 +13470,21 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="16">
         <v>-1002105211537</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13498,7 +13495,7 @@
         <v>-1001957612350</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13509,7 +13506,7 @@
         <v>-1002018254333</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13520,7 +13517,7 @@
         <v>-1002088477755</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13531,7 +13528,7 @@
         <v>-1002486405540</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -13543,7 +13540,7 @@
         <v>-1002383589094</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -13554,19 +13551,19 @@
         <v>-1002367221793</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B9" s="17">
         <v>-1002390345649</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -13577,7 +13574,7 @@
         <v>-1002378514893</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -13588,7 +13585,7 @@
         <v>-1002407233853</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -13599,7 +13596,7 @@
         <v>-1002407233853</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -13610,7 +13607,7 @@
         <v>-1002248753359</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -13621,7 +13618,7 @@
         <v>-1002170091825</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -13632,7 +13629,7 @@
         <v>-1002177242150</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -13643,7 +13640,7 @@
         <v>-1002148324453</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13654,7 +13651,7 @@
         <v>-1002242675024</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13665,7 +13662,7 @@
         <v>-1002450143442</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13676,7 +13673,7 @@
         <v>-1002294601204</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13687,7 +13684,7 @@
         <v>-1002322215761</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13698,7 +13695,7 @@
         <v>-1002426461312</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13709,7 +13706,7 @@
         <v>-1002496590323</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -13720,7 +13717,7 @@
         <v>-1002390358046</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -13731,7 +13728,7 @@
         <v>-1002361153876</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -13740,7 +13737,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13749,7 +13746,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -13758,7 +13755,7 @@
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -13767,7 +13764,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/excel tipstersbets.xlsx
+++ b/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{B0EC8CFD-76D2-401C-B83B-3538F33E9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6993DAAE-FE57-49E3-8EDA-ABC59E1B389A}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{B0EC8CFD-76D2-401C-B83B-3538F33E9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CC7C66D-5877-4FFE-A7A0-E1449451C349}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -1318,17 +1318,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1609,25 +1628,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1696,17 +1696,17 @@
     <tableColumn id="9" xr3:uid="{CF983380-C43E-4E57-B305-EF7D9A7406DD}" name="Utilidad en unidades" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="16" dataCellStyle="Porcentaje"/>
     <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="15" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="14" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="13" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{866A2044-8D3E-4514-816A-58D23559BF0F}" name="Futbol" dataDxfId="12" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{F9CB7266-C729-4A1B-B940-2670112DE3FC}" name="Basquetball" dataDxfId="11" dataCellStyle="Porcentaje"/>
-    <tableColumn id="12" xr3:uid="{F6D4D26C-D3EB-4C19-9672-8679A49A3052}" name="Americano" dataDxfId="10" dataCellStyle="Porcentaje"/>
-    <tableColumn id="14" xr3:uid="{6945494E-F246-48EE-B151-7F13EDFFFE1A}" name="Beisbol" dataDxfId="9" dataCellStyle="Porcentaje"/>
-    <tableColumn id="13" xr3:uid="{445A6DC4-DD71-4771-AEF8-CDA64BD1FA52}" name="Tenis" dataDxfId="8" dataCellStyle="Porcentaje"/>
-    <tableColumn id="16" xr3:uid="{FD82B7E7-E8D9-4BCB-8714-2BDBDC6D6D7B}" name="MMA" dataDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="17" xr3:uid="{17D355EA-BC53-4148-BCBB-0A4E0B52A83B}" name="Esports" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="18" xr3:uid="{3B6C6837-9396-4279-A40E-3B7A20109078}" name="PingPong" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="19" xr3:uid="{0E0D5A32-BA64-47A8-8853-46168FE3BEC5}" name="Hockey" dataDxfId="4" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="0" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="14" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{866A2044-8D3E-4514-816A-58D23559BF0F}" name="Futbol" dataDxfId="13" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{F9CB7266-C729-4A1B-B940-2670112DE3FC}" name="Basquetball" dataDxfId="12" dataCellStyle="Porcentaje"/>
+    <tableColumn id="12" xr3:uid="{F6D4D26C-D3EB-4C19-9672-8679A49A3052}" name="Americano" dataDxfId="11" dataCellStyle="Porcentaje"/>
+    <tableColumn id="14" xr3:uid="{6945494E-F246-48EE-B151-7F13EDFFFE1A}" name="Beisbol" dataDxfId="10" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{445A6DC4-DD71-4771-AEF8-CDA64BD1FA52}" name="Tenis" dataDxfId="9" dataCellStyle="Porcentaje"/>
+    <tableColumn id="16" xr3:uid="{FD82B7E7-E8D9-4BCB-8714-2BDBDC6D6D7B}" name="MMA" dataDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="17" xr3:uid="{17D355EA-BC53-4148-BCBB-0A4E0B52A83B}" name="Esports" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="18" xr3:uid="{3B6C6837-9396-4279-A40E-3B7A20109078}" name="PingPong" dataDxfId="6" dataCellStyle="Porcentaje"/>
+    <tableColumn id="19" xr3:uid="{0E0D5A32-BA64-47A8-8853-46168FE3BEC5}" name="Hockey" dataDxfId="5" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1717,7 +1717,7 @@
   <autoFilter ref="A1:B6" xr:uid="{0107E050-3D9E-4DB3-8FD6-2C5CFE270200}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{62C7305D-5581-4E8C-9221-7F734D5C0270}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9C5D0D75-4426-4CD4-B342-8F5F3A476DDD}" name="Canal_ID" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1730,7 +1730,7 @@
     <sortCondition ref="C1:C179"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B5F95BCB-CDAA-475D-B6C2-C29DBE882805}" name="Grupo" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{C8BAE6C7-8764-49FD-BD47-BFE95BB59A08}" name="Grupo 2"/>
     <tableColumn id="3" xr3:uid="{FCB45D94-E4FA-4C45-A26A-6552778FA339}" name="Grupo 3"/>
     <tableColumn id="4" xr3:uid="{971C5D22-285E-44DE-B8B7-3BB0178EB0A5}" name="Grupo 4"/>
@@ -1748,8 +1748,8 @@
   <autoFilter ref="A1:C28" xr:uid="{49D4A48E-206D-4E2E-A540-F153A2B0FF4C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60EC5D0E-B316-49AB-94CF-29035F201DA7}" name="Grupo"/>
-    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0CF6F8BC-C9C3-4D54-B3D1-C4A54E08AE66}" name="Canal" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{50AF3365-911E-4A5C-A61A-679CF3DC2572}" name="Marca de Agua" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2074,7 +2074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
   <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F185"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2165,7 +2167,7 @@
       <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-6970</v>
       </c>
@@ -2179,7 +2181,7 @@
       <c r="H2" s="3">
         <v>19</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>42.424242424242422</v>
       </c>
@@ -2209,7 +2211,7 @@
       <c r="C3" s="1">
         <v>10000</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3050</v>
       </c>
@@ -2223,7 +2225,7 @@
       <c r="H3" s="3">
         <v>7</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>63.157894736842103</v>
       </c>
@@ -2254,7 +2256,7 @@
       <c r="C4" s="1">
         <v>10000</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>420</v>
       </c>
@@ -2268,7 +2270,7 @@
       <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>57.142857142857139</v>
       </c>
@@ -2298,7 +2300,7 @@
       <c r="C5" s="1">
         <v>10000</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1000</v>
       </c>
@@ -2310,7 +2312,7 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>0</v>
       </c>
@@ -2336,7 +2338,7 @@
       <c r="C6" s="1">
         <v>10000</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-4623</v>
       </c>
@@ -2350,7 +2352,7 @@
       <c r="H6" s="3">
         <v>41</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>48.75</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="C7" s="1">
         <v>10000</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-416</v>
       </c>
@@ -2399,7 +2401,7 @@
       <c r="H7" s="3">
         <v>9</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>47.058823529411761</v>
       </c>
@@ -2430,14 +2432,14 @@
       <c r="C8" s="1">
         <v>10000</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="18" t="e">
+      <c r="I8" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="E9" s="1"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="20"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2487,7 +2489,7 @@
       <c r="C10" s="1">
         <v>10000</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-40</v>
       </c>
@@ -2503,7 +2505,7 @@
       <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -2531,7 +2533,7 @@
       <c r="C11" s="1">
         <v>10000</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-590</v>
       </c>
@@ -2547,7 +2549,7 @@
       <c r="H11" s="3">
         <v>18</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -2575,7 +2577,7 @@
       <c r="C12" s="1">
         <v>10000</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>4802</v>
       </c>
@@ -2591,7 +2593,7 @@
       <c r="H12" s="3">
         <v>11</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>65.625</v>
       </c>
@@ -2624,7 +2626,7 @@
       <c r="C13" s="1">
         <v>10000</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>960</v>
       </c>
@@ -2640,7 +2642,7 @@
       <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>57.142857142857139</v>
       </c>
@@ -2669,7 +2671,7 @@
       <c r="C14" s="1">
         <v>10000</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3065</v>
       </c>
@@ -2685,7 +2687,7 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>88.888888888888886</v>
       </c>
@@ -2716,7 +2718,7 @@
       <c r="E15" s="1"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2738,7 +2740,7 @@
       <c r="C16" s="1">
         <v>10000</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-2658</v>
       </c>
@@ -2754,7 +2756,7 @@
       <c r="H16" s="3">
         <v>7</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>41.666666666666671</v>
       </c>
@@ -2783,13 +2785,13 @@
       <c r="C17" s="1">
         <v>10000</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E17" s="1"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="18" t="e">
+      <c r="I17" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2817,7 +2819,7 @@
       <c r="E18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="20"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2838,7 +2840,7 @@
       <c r="C19" s="1">
         <v>10000</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-944</v>
       </c>
@@ -2854,7 +2856,7 @@
       <c r="H19" s="3">
         <v>12</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>45.454545454545453</v>
       </c>
@@ -2884,7 +2886,7 @@
       <c r="C20" s="1">
         <v>10000</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1089</v>
       </c>
@@ -2900,7 +2902,7 @@
       <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>81.818181818181827</v>
       </c>
@@ -2929,7 +2931,7 @@
       <c r="C21" s="1">
         <v>10000</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>4061</v>
       </c>
@@ -2945,7 +2947,7 @@
       <c r="H21" s="3">
         <v>15</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>40</v>
       </c>
@@ -2980,14 +2982,14 @@
       <c r="C22" s="1">
         <v>10000</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="18" t="e">
+      <c r="I22" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3012,13 +3014,13 @@
       <c r="C23" s="1">
         <v>10000</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="18" t="e">
+      <c r="I23" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3042,7 +3044,7 @@
       <c r="C24" s="1">
         <v>10000</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-350</v>
       </c>
@@ -3058,7 +3060,7 @@
       <c r="H24" s="3">
         <v>12</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -3086,14 +3088,14 @@
       <c r="C25" s="1">
         <v>10000</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E25" s="1"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="18" t="e">
+      <c r="I25" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3117,7 +3119,7 @@
       <c r="C26" s="1">
         <v>10000</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>459.99999999999994</v>
       </c>
@@ -3133,7 +3135,7 @@
       <c r="H26" s="3">
         <v>19</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>53.658536585365859</v>
       </c>
@@ -3164,7 +3166,7 @@
       <c r="C27" s="1">
         <v>10000</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1827</v>
       </c>
@@ -3180,7 +3182,7 @@
       <c r="H27" s="3">
         <v>13</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>48</v>
       </c>
@@ -3215,7 +3217,7 @@
       <c r="C28" s="1">
         <v>10000</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>147</v>
       </c>
@@ -3231,7 +3233,7 @@
       <c r="H28" s="3">
         <v>21</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>46.153846153846153</v>
       </c>
@@ -3263,7 +3265,7 @@
       <c r="C29" s="1">
         <v>10000</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-391</v>
       </c>
@@ -3279,7 +3281,7 @@
       <c r="H29" s="3">
         <v>13</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>51.851851851851848</v>
       </c>
@@ -3309,7 +3311,7 @@
       <c r="C30" s="1">
         <v>10000</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>2795</v>
       </c>
@@ -3325,7 +3327,7 @@
       <c r="H30" s="3">
         <v>6</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>70</v>
       </c>
@@ -3354,13 +3356,13 @@
       <c r="C31" s="1">
         <v>10000</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="18" t="e">
+      <c r="I31" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3384,7 +3386,7 @@
       <c r="C32" s="1">
         <v>10000</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3768</v>
       </c>
@@ -3400,7 +3402,7 @@
       <c r="H32" s="3">
         <v>14</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>61.111111111111114</v>
       </c>
@@ -3435,14 +3437,14 @@
       <c r="C33" s="1">
         <v>10000</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E33" s="1"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="18" t="e">
+      <c r="I33" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3466,7 +3468,7 @@
       <c r="C34" s="1">
         <v>10000</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-3360</v>
       </c>
@@ -3482,7 +3484,7 @@
       <c r="H34" s="3">
         <v>5</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>28.571428571428569</v>
       </c>
@@ -3508,14 +3510,14 @@
       <c r="C35" s="1">
         <v>10000</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E35" s="1"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="18" t="e">
+      <c r="I35" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3539,13 +3541,13 @@
       <c r="C36" s="1">
         <v>10000</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E36" s="1"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="18" t="e">
+      <c r="I36" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3569,13 +3571,13 @@
       <c r="C37" s="1">
         <v>10000</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E37" s="1"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="18" t="e">
+      <c r="I37" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3599,14 +3601,14 @@
       <c r="C38" s="1">
         <v>10000</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E38" s="1"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="18" t="e">
+      <c r="I38" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3630,7 +3632,7 @@
       <c r="C39" s="1">
         <v>10000</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>27822.000000000004</v>
       </c>
@@ -3646,7 +3648,7 @@
       <c r="H39" s="3">
         <v>6</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>77.777777777777786</v>
       </c>
@@ -3668,13 +3670,13 @@
       <c r="A40" t="s">
         <v>371</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3696,7 +3698,7 @@
       <c r="C41" s="1">
         <v>10000</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1065</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="18">
+      <c r="I41" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>100</v>
       </c>
@@ -3739,7 +3741,7 @@
       <c r="C42" s="1">
         <v>10000</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>7853</v>
       </c>
@@ -3755,7 +3757,7 @@
       <c r="H42" s="3">
         <v>11</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>66.666666666666657</v>
       </c>
@@ -3787,7 +3789,7 @@
       <c r="C43" s="1">
         <v>10000</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-4869</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="H43" s="3">
         <v>14</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>36.363636363636367</v>
       </c>
@@ -3830,7 +3832,7 @@
       <c r="C44" s="1">
         <v>10000</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>778</v>
       </c>
@@ -3846,7 +3848,7 @@
       <c r="H44" s="3">
         <v>16</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>57.894736842105267</v>
       </c>
@@ -3878,7 +3880,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3900,7 +3902,7 @@
       <c r="C46" s="1">
         <v>10000</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-7990.0000000000009</v>
       </c>
@@ -3916,7 +3918,7 @@
       <c r="H46" s="3">
         <v>24</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>33.333333333333329</v>
       </c>
@@ -3949,7 +3951,7 @@
       <c r="C47" s="1">
         <v>10000</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3699</v>
       </c>
@@ -3965,7 +3967,7 @@
       <c r="H47" s="3">
         <v>14</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>65.853658536585371</v>
       </c>
@@ -3998,14 +4000,14 @@
       <c r="C48" s="1">
         <v>10000</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E48" s="1"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="18" t="e">
+      <c r="I48" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4030,7 +4032,7 @@
       <c r="C49" s="1">
         <v>10000</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>2345</v>
       </c>
@@ -4046,7 +4048,7 @@
       <c r="H49" s="3">
         <v>10</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>66.666666666666657</v>
       </c>
@@ -4081,7 +4083,7 @@
       <c r="C50" s="1">
         <v>10000</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3952.0000000000005</v>
       </c>
@@ -4097,7 +4099,7 @@
       <c r="H50" s="3">
         <v>19</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>61.224489795918366</v>
       </c>
@@ -4130,7 +4132,7 @@
       <c r="C51" s="1">
         <v>10000</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>4326</v>
       </c>
@@ -4146,7 +4148,7 @@
       <c r="H51" s="3">
         <v>6</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>77.777777777777786</v>
       </c>
@@ -4176,13 +4178,13 @@
       <c r="C52" s="1">
         <v>10000</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E52" s="1"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="18" t="e">
+      <c r="I52" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4206,7 +4208,7 @@
       <c r="C53" s="1">
         <v>10000</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-413</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="H53" s="3">
         <v>10</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>37.5</v>
       </c>
@@ -4250,7 +4252,7 @@
       <c r="C54" s="1">
         <v>10000</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-855.00000000000011</v>
       </c>
@@ -4266,7 +4268,7 @@
       <c r="H54" s="3">
         <v>19</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -4294,13 +4296,13 @@
       <c r="C55" s="1">
         <v>10000</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E55" s="1"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="18" t="e">
+      <c r="I55" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4324,7 +4326,7 @@
       <c r="C56" s="1">
         <v>10000</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1710.0000000000002</v>
       </c>
@@ -4340,7 +4342,7 @@
       <c r="H56" s="3">
         <v>5</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>16.666666666666664</v>
       </c>
@@ -4366,14 +4368,14 @@
       <c r="C57" s="1">
         <v>10000</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E57" s="1"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="18" t="e">
+      <c r="I57" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4397,14 +4399,14 @@
       <c r="C58" s="1">
         <v>10000</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E58" s="1"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="18" t="e">
+      <c r="I58" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4429,7 +4431,7 @@
       <c r="C59" s="1">
         <v>10000</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>691</v>
       </c>
@@ -4445,7 +4447,7 @@
       <c r="H59" s="3">
         <v>9</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>55.000000000000007</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="C60" s="1">
         <v>10000</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>491</v>
       </c>
@@ -4491,7 +4493,7 @@
       <c r="H60" s="3">
         <v>1</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>80</v>
       </c>
@@ -4520,7 +4522,7 @@
       <c r="C61" s="1">
         <v>10000</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>961</v>
       </c>
@@ -4536,7 +4538,7 @@
       <c r="H61" s="3">
         <v>9</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>60.869565217391312</v>
       </c>
@@ -4565,13 +4567,13 @@
       <c r="C62" s="1">
         <v>10000</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E62" s="1"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="18" t="e">
+      <c r="I62" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4595,14 +4597,14 @@
       <c r="C63" s="1">
         <v>10000</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E63" s="1"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="18" t="e">
+      <c r="I63" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4627,13 +4629,13 @@
       <c r="C64" s="1">
         <v>10000</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E64" s="1"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="18" t="e">
+      <c r="I64" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4657,7 +4659,7 @@
       <c r="C65" s="1">
         <v>10000</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1543500</v>
       </c>
@@ -4673,7 +4675,7 @@
       <c r="H65" s="3">
         <v>14</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>51.724137931034484</v>
       </c>
@@ -4708,7 +4710,7 @@
       <c r="C66" s="1">
         <v>10000</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-905.00000000000011</v>
       </c>
@@ -4724,7 +4726,7 @@
       <c r="H66" s="3">
         <v>10</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I66" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>41.17647058823529</v>
       </c>
@@ -4751,7 +4753,7 @@
       <c r="C67" s="1">
         <v>10000</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-484.99999999999994</v>
       </c>
@@ -4767,7 +4769,7 @@
       <c r="H67" s="3">
         <v>3</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>57.142857142857139</v>
       </c>
@@ -4798,7 +4800,7 @@
       <c r="C68" s="1">
         <v>10000</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>560</v>
       </c>
@@ -4814,7 +4816,7 @@
       <c r="H68" s="3">
         <v>7</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I68" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>66.666666666666657</v>
       </c>
@@ -4843,7 +4845,7 @@
       <c r="C69" s="1">
         <v>10000</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1011.9999999999999</v>
       </c>
@@ -4859,7 +4861,7 @@
       <c r="H69" s="3">
         <v>1</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>87.5</v>
       </c>
@@ -4888,13 +4890,13 @@
       <c r="C70" s="1">
         <v>10000</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E70" s="1"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="18" t="e">
+      <c r="I70" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4918,13 +4920,13 @@
       <c r="C71" s="1">
         <v>10000</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E71" s="1"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="18" t="e">
+      <c r="I71" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4948,7 +4950,7 @@
       <c r="C72" s="1">
         <v>10000</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-370</v>
       </c>
@@ -4964,7 +4966,7 @@
       <c r="H72" s="3">
         <v>12</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>55.555555555555557</v>
       </c>
@@ -4994,7 +4996,7 @@
       <c r="C73" s="1">
         <v>10000</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>678</v>
       </c>
@@ -5010,7 +5012,7 @@
       <c r="H73" s="3">
         <v>13</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>68.292682926829272</v>
       </c>
@@ -5041,7 +5043,7 @@
       <c r="C74" s="1">
         <v>10000</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-14430.000000000002</v>
       </c>
@@ -5057,7 +5059,7 @@
       <c r="H74" s="3">
         <v>38</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I74" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>28.30188679245283</v>
       </c>
@@ -5085,7 +5087,7 @@
       <c r="C75" s="1">
         <v>10000</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>103</v>
       </c>
@@ -5101,7 +5103,7 @@
       <c r="H75" s="3">
         <v>34</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I75" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>56.410256410256409</v>
       </c>
@@ -5131,7 +5133,7 @@
       <c r="C76" s="1">
         <v>10000</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-325</v>
       </c>
@@ -5147,7 +5149,7 @@
       <c r="H76" s="3">
         <v>3</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I76" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>25</v>
       </c>
@@ -5171,7 +5173,7 @@
       <c r="C77" s="1">
         <v>10000</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>498.00000000000006</v>
       </c>
@@ -5187,7 +5189,7 @@
       <c r="H77" s="3">
         <v>18</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I77" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>60.869565217391312</v>
       </c>
@@ -5218,14 +5220,14 @@
       <c r="C78" s="1">
         <v>10000</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E78" s="1"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="18" t="e">
+      <c r="I78" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5250,7 +5252,7 @@
       <c r="C79" s="1">
         <v>10000</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1060</v>
       </c>
@@ -5266,7 +5268,7 @@
       <c r="H79" s="3">
         <v>20</v>
       </c>
-      <c r="I79" s="18">
+      <c r="I79" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -5294,7 +5296,7 @@
       <c r="C80" s="1">
         <v>10000</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3188</v>
       </c>
@@ -5310,7 +5312,7 @@
       <c r="H80" s="3">
         <v>12</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I80" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>62.5</v>
       </c>
@@ -5338,7 +5340,7 @@
       <c r="C81" s="1">
         <v>10000</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3972</v>
       </c>
@@ -5354,7 +5356,7 @@
       <c r="H81" s="3">
         <v>11</v>
       </c>
-      <c r="I81" s="18">
+      <c r="I81" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>60.714285714285708</v>
       </c>
@@ -5387,7 +5389,7 @@
       <c r="C82" s="1">
         <v>10000</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-390</v>
       </c>
@@ -5403,7 +5405,7 @@
       <c r="H82" s="3">
         <v>3</v>
       </c>
-      <c r="I82" s="18">
+      <c r="I82" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -5433,7 +5435,7 @@
       <c r="C83" s="1">
         <v>10000</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1229</v>
       </c>
@@ -5449,7 +5451,7 @@
       <c r="H83" s="3">
         <v>8</v>
       </c>
-      <c r="I83" s="18">
+      <c r="I83" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>42.857142857142854</v>
       </c>
@@ -5480,7 +5482,7 @@
       <c r="C84" s="1">
         <v>10000</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1390</v>
       </c>
@@ -5496,7 +5498,7 @@
       <c r="H84" s="3">
         <v>16</v>
       </c>
-      <c r="I84" s="18">
+      <c r="I84" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>61.904761904761905</v>
       </c>
@@ -5529,14 +5531,14 @@
       <c r="C85" s="1">
         <v>10000</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E85" s="1"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="18" t="e">
+      <c r="I85" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5560,7 +5562,7 @@
       <c r="C86" s="1">
         <v>10000</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3650</v>
       </c>
@@ -5576,7 +5578,7 @@
       <c r="H86" s="3">
         <v>2</v>
       </c>
-      <c r="I86" s="18">
+      <c r="I86" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>77.777777777777786</v>
       </c>
@@ -5607,7 +5609,7 @@
       <c r="C87" s="1">
         <v>10000</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-3130</v>
       </c>
@@ -5623,7 +5625,7 @@
       <c r="H87" s="3">
         <v>4</v>
       </c>
-      <c r="I87" s="18">
+      <c r="I87" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>20</v>
       </c>
@@ -5653,14 +5655,14 @@
       <c r="C88" s="1">
         <v>10000</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E88" s="1"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="18" t="e">
+      <c r="I88" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5685,7 +5687,7 @@
       <c r="C89" s="1">
         <v>10000</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-836</v>
       </c>
@@ -5701,7 +5703,7 @@
       <c r="H89" s="3">
         <v>30</v>
       </c>
-      <c r="I89" s="18">
+      <c r="I89" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>49.152542372881356</v>
       </c>
@@ -5734,14 +5736,14 @@
       <c r="C90" s="1">
         <v>10000</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E90" s="1"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="18" t="e">
+      <c r="I90" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5766,14 +5768,14 @@
       <c r="C91" s="1">
         <v>10000</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E91" s="1"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="18" t="e">
+      <c r="I91" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5798,14 +5800,14 @@
       <c r="C92" s="1">
         <v>10000</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E92" s="1"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="18" t="e">
+      <c r="I92" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5829,14 +5831,14 @@
       <c r="C93" s="1">
         <v>10000</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E93" s="1"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="18" t="e">
+      <c r="I93" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5861,14 +5863,14 @@
       <c r="C94" s="1">
         <v>10000</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E94" s="1"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="18" t="e">
+      <c r="I94" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5893,7 +5895,7 @@
       <c r="C95" s="1">
         <v>10000</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1176</v>
       </c>
@@ -5909,7 +5911,7 @@
       <c r="H95" s="3">
         <v>14</v>
       </c>
-      <c r="I95" s="18">
+      <c r="I95" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -5937,14 +5939,14 @@
       <c r="C96" s="1">
         <v>10000</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E96" s="1"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="18" t="e">
+      <c r="I96" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5968,14 +5970,14 @@
       <c r="C97" s="1">
         <v>10000</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E97" s="1"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="18" t="e">
+      <c r="I97" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6000,7 +6002,7 @@
       <c r="C98" s="1">
         <v>10000</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1360</v>
       </c>
@@ -6016,7 +6018,7 @@
       <c r="H98" s="3">
         <v>5</v>
       </c>
-      <c r="I98" s="18">
+      <c r="I98" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>58.333333333333336</v>
       </c>
@@ -6046,7 +6048,7 @@
       <c r="C99" s="1">
         <v>10000</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-265</v>
       </c>
@@ -6062,7 +6064,7 @@
       <c r="H99" s="3">
         <v>12</v>
       </c>
-      <c r="I99" s="18">
+      <c r="I99" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>58.620689655172406</v>
       </c>
@@ -6094,7 +6096,7 @@
       <c r="C100" s="1">
         <v>10000</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>7770</v>
       </c>
@@ -6110,7 +6112,7 @@
       <c r="H100" s="3">
         <v>2</v>
       </c>
-      <c r="I100" s="18">
+      <c r="I100" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>77.777777777777786</v>
       </c>
@@ -6141,7 +6143,7 @@
       <c r="C101" s="1">
         <v>10000</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-4886</v>
       </c>
@@ -6157,7 +6159,7 @@
       <c r="H101" s="3">
         <v>22</v>
       </c>
-      <c r="I101" s="18">
+      <c r="I101" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>40.54054054054054</v>
       </c>
@@ -6184,14 +6186,14 @@
       <c r="C102" s="1">
         <v>10000</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E102" s="1"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="18" t="e">
+      <c r="I102" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6216,7 +6218,7 @@
       <c r="C103" s="1">
         <v>10000</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3749</v>
       </c>
@@ -6232,7 +6234,7 @@
       <c r="H103" s="3">
         <v>14</v>
       </c>
-      <c r="I103" s="18">
+      <c r="I103" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>74.545454545454547</v>
       </c>
@@ -6261,14 +6263,14 @@
       <c r="C104" s="1">
         <v>10000</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E104" s="1"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="18" t="e">
+      <c r="I104" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6293,14 +6295,14 @@
       <c r="C105" s="1">
         <v>10000</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E105" s="1"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="18" t="e">
+      <c r="I105" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6325,7 +6327,7 @@
       <c r="C106" s="1">
         <v>10000</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>200</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="18">
+      <c r="I106" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>100</v>
       </c>
@@ -6368,14 +6370,14 @@
       <c r="C107" s="1">
         <v>10000</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E107" s="1"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="18" t="e">
+      <c r="I107" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6400,7 +6402,7 @@
       <c r="C108" s="1">
         <v>10000</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1823.9999999999998</v>
       </c>
@@ -6416,7 +6418,7 @@
       <c r="H108" s="3">
         <v>17</v>
       </c>
-      <c r="I108" s="18">
+      <c r="I108" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>45.161290322580641</v>
       </c>
@@ -6442,7 +6444,7 @@
       <c r="C109" s="1">
         <v>10000</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>3529.9999999999995</v>
       </c>
@@ -6458,7 +6460,7 @@
       <c r="H109" s="3">
         <v>1</v>
       </c>
-      <c r="I109" s="18">
+      <c r="I109" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>80</v>
       </c>
@@ -6489,7 +6491,7 @@
       <c r="C110" s="1">
         <v>10000</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-229.99999999999997</v>
       </c>
@@ -6505,7 +6507,7 @@
       <c r="H110" s="3">
         <v>4</v>
       </c>
-      <c r="I110" s="18">
+      <c r="I110" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>55.555555555555557</v>
       </c>
@@ -6532,14 +6534,14 @@
       <c r="C111" s="1">
         <v>10000</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D111" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E111" s="1"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="18" t="e">
+      <c r="I111" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6563,14 +6565,14 @@
       <c r="C112" s="1">
         <v>10000</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E112" s="1"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="18" t="e">
+      <c r="I112" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6595,14 +6597,14 @@
       <c r="C113" s="1">
         <v>10000</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E113" s="1"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-      <c r="I113" s="18" t="e">
+      <c r="I113" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6627,14 +6629,14 @@
       <c r="C114" s="1">
         <v>10000</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E114" s="1"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="18" t="e">
+      <c r="I114" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6658,7 +6660,7 @@
       <c r="C115" s="1">
         <v>10000</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-215</v>
       </c>
@@ -6674,7 +6676,7 @@
       <c r="H115" s="3">
         <v>15</v>
       </c>
-      <c r="I115" s="18">
+      <c r="I115" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>37.5</v>
       </c>
@@ -6707,14 +6709,14 @@
       <c r="C116" s="1">
         <v>10000</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E116" s="1"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="18" t="e">
+      <c r="I116" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6738,14 +6740,14 @@
       <c r="C117" s="1">
         <v>10000</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E117" s="1"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
-      <c r="I117" s="18" t="e">
+      <c r="I117" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6769,14 +6771,14 @@
       <c r="C118" s="1">
         <v>10000</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E118" s="1"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="18" t="e">
+      <c r="I118" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6801,14 +6803,14 @@
       <c r="C119" s="1">
         <v>10000</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E119" s="1"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="18" t="e">
+      <c r="I119" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6833,7 +6835,7 @@
       <c r="C120" s="1">
         <v>10000</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-890</v>
       </c>
@@ -6849,7 +6851,7 @@
       <c r="H120" s="3">
         <v>2</v>
       </c>
-      <c r="I120" s="18">
+      <c r="I120" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -6875,7 +6877,7 @@
       <c r="C121" s="1">
         <v>10000</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D121" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-240</v>
       </c>
@@ -6891,7 +6893,7 @@
       <c r="H121" s="3">
         <v>5</v>
       </c>
-      <c r="I121" s="18">
+      <c r="I121" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>58.333333333333336</v>
       </c>
@@ -6917,14 +6919,14 @@
       <c r="C122" s="1">
         <v>10000</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D122" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E122" s="1"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="18" t="e">
+      <c r="I122" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6949,14 +6951,14 @@
       <c r="C123" s="1">
         <v>10000</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E123" s="1"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
-      <c r="I123" s="18" t="e">
+      <c r="I123" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6981,7 +6983,7 @@
       <c r="C124" s="1">
         <v>10000</v>
       </c>
-      <c r="D124" s="19">
+      <c r="D124" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-300</v>
       </c>
@@ -6995,7 +6997,7 @@
       <c r="H124" s="3">
         <v>1</v>
       </c>
-      <c r="I124" s="18">
+      <c r="I124" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>0</v>
       </c>
@@ -7021,7 +7023,7 @@
       <c r="C125" s="1">
         <v>10000</v>
       </c>
-      <c r="D125" s="19">
+      <c r="D125" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-875</v>
       </c>
@@ -7037,7 +7039,7 @@
       <c r="H125" s="3">
         <v>20</v>
       </c>
-      <c r="I125" s="18">
+      <c r="I125" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>54.54545454545454</v>
       </c>
@@ -7064,14 +7066,14 @@
       <c r="C126" s="1">
         <v>10000</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E126" s="1"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
-      <c r="I126" s="18" t="e">
+      <c r="I126" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7095,7 +7097,7 @@
       <c r="C127" s="1">
         <v>10000</v>
       </c>
-      <c r="D127" s="19">
+      <c r="D127" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>4800</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="18">
+      <c r="I127" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>100</v>
       </c>
@@ -7138,14 +7140,14 @@
       <c r="C128" s="1">
         <v>10000</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E128" s="1"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
-      <c r="I128" s="18" t="e">
+      <c r="I128" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7170,14 +7172,14 @@
       <c r="C129" s="1">
         <v>10000</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E129" s="1"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="18" t="e">
+      <c r="I129" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7202,7 +7204,7 @@
       <c r="C130" s="1">
         <v>10000</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-620</v>
       </c>
@@ -7218,7 +7220,7 @@
       <c r="H130" s="3">
         <v>4</v>
       </c>
-      <c r="I130" s="18">
+      <c r="I130" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>60</v>
       </c>
@@ -7244,14 +7246,14 @@
       <c r="C131" s="1">
         <v>10000</v>
       </c>
-      <c r="D131" s="19">
+      <c r="D131" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E131" s="1"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="18" t="e">
+      <c r="I131" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7276,14 +7278,14 @@
       <c r="C132" s="1">
         <v>10000</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D132" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E132" s="1"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="18" t="e">
+      <c r="I132" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7307,7 +7309,7 @@
       <c r="C133" s="1">
         <v>10000</v>
       </c>
-      <c r="D133" s="19">
+      <c r="D133" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-440.00000000000006</v>
       </c>
@@ -7323,7 +7325,7 @@
       <c r="H133" s="3">
         <v>2</v>
       </c>
-      <c r="I133" s="18">
+      <c r="I133" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -7349,7 +7351,7 @@
       <c r="C134" s="1">
         <v>10000</v>
       </c>
-      <c r="D134" s="19">
+      <c r="D134" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1006</v>
       </c>
@@ -7365,7 +7367,7 @@
       <c r="H134" s="3">
         <v>9</v>
       </c>
-      <c r="I134" s="18">
+      <c r="I134" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>52.631578947368418</v>
       </c>
@@ -7393,14 +7395,14 @@
       <c r="C135" s="1">
         <v>10000</v>
       </c>
-      <c r="D135" s="19">
+      <c r="D135" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E135" s="1"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="18" t="e">
+      <c r="I135" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7424,14 +7426,14 @@
       <c r="C136" s="1">
         <v>10000</v>
       </c>
-      <c r="D136" s="19">
+      <c r="D136" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E136" s="1"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
-      <c r="I136" s="18" t="e">
+      <c r="I136" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7455,7 +7457,7 @@
       <c r="C137" s="1">
         <v>10000</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>154</v>
       </c>
@@ -7471,7 +7473,7 @@
       <c r="H137" s="3">
         <v>1</v>
       </c>
-      <c r="I137" s="18">
+      <c r="I137" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>66.666666666666657</v>
       </c>
@@ -7498,14 +7500,14 @@
       <c r="C138" s="1">
         <v>10000</v>
       </c>
-      <c r="D138" s="19">
+      <c r="D138" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E138" s="1"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
-      <c r="I138" s="18" t="e">
+      <c r="I138" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7530,7 +7532,7 @@
       <c r="C139" s="1">
         <v>10000</v>
       </c>
-      <c r="D139" s="19">
+      <c r="D139" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>2171</v>
       </c>
@@ -7546,7 +7548,7 @@
       <c r="H139" s="3">
         <v>3</v>
       </c>
-      <c r="I139" s="18">
+      <c r="I139" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>72.727272727272734</v>
       </c>
@@ -7574,7 +7576,7 @@
       <c r="C140" s="1">
         <v>10000</v>
       </c>
-      <c r="D140" s="19">
+      <c r="D140" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>590</v>
       </c>
@@ -7590,7 +7592,7 @@
       <c r="H140" s="3">
         <v>2</v>
       </c>
-      <c r="I140" s="18">
+      <c r="I140" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>60</v>
       </c>
@@ -7619,14 +7621,14 @@
       <c r="C141" s="1">
         <v>10000</v>
       </c>
-      <c r="D141" s="19">
+      <c r="D141" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E141" s="1"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="18" t="e">
+      <c r="I141" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7650,14 +7652,14 @@
       <c r="C142" s="1">
         <v>10000</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D142" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E142" s="1"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
-      <c r="I142" s="18" t="e">
+      <c r="I142" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7681,14 +7683,14 @@
       <c r="C143" s="1">
         <v>10000</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D143" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E143" s="1"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
-      <c r="I143" s="18" t="e">
+      <c r="I143" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7713,7 +7715,7 @@
       <c r="C144" s="1">
         <v>10000</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D144" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>30800</v>
       </c>
@@ -7729,7 +7731,7 @@
       <c r="H144" s="3">
         <v>7</v>
       </c>
-      <c r="I144" s="18">
+      <c r="I144" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>56.25</v>
       </c>
@@ -7758,7 +7760,7 @@
       <c r="C145" s="1">
         <v>10000</v>
       </c>
-      <c r="D145" s="19">
+      <c r="D145" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1750</v>
       </c>
@@ -7772,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="H145" s="3"/>
-      <c r="I145" s="18">
+      <c r="I145" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>100</v>
       </c>
@@ -7801,7 +7803,7 @@
       <c r="C146" s="1">
         <v>10000</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>370</v>
       </c>
@@ -7817,7 +7819,7 @@
       <c r="H146" s="3">
         <v>1</v>
       </c>
-      <c r="I146" s="18">
+      <c r="I146" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>75</v>
       </c>
@@ -7846,7 +7848,7 @@
       <c r="C147" s="1">
         <v>10000</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>300</v>
       </c>
@@ -7862,7 +7864,7 @@
       <c r="H147" s="3">
         <v>1</v>
       </c>
-      <c r="I147" s="18">
+      <c r="I147" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -7888,7 +7890,7 @@
       <c r="C148" s="1">
         <v>10000</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-13288.999999999998</v>
       </c>
@@ -7904,7 +7906,7 @@
       <c r="H148" s="3">
         <v>14</v>
       </c>
-      <c r="I148" s="18">
+      <c r="I148" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>39.130434782608695</v>
       </c>
@@ -7930,7 +7932,7 @@
       <c r="C149" s="1">
         <v>10000</v>
       </c>
-      <c r="D149" s="19">
+      <c r="D149" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1926.0000000000002</v>
       </c>
@@ -7946,7 +7948,7 @@
       <c r="H149" s="3">
         <v>2</v>
       </c>
-      <c r="I149" s="18">
+      <c r="I149" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>75</v>
       </c>
@@ -7973,14 +7975,14 @@
       <c r="C150" s="1">
         <v>10000</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E150" s="1"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="18" t="e">
+      <c r="I150" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8005,7 +8007,7 @@
       <c r="C151" s="1">
         <v>10000</v>
       </c>
-      <c r="D151" s="19">
+      <c r="D151" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>4947</v>
       </c>
@@ -8021,7 +8023,7 @@
       <c r="H151" s="3">
         <v>3</v>
       </c>
-      <c r="I151" s="18">
+      <c r="I151" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>82.35294117647058</v>
       </c>
@@ -8050,14 +8052,14 @@
       <c r="C152" s="1">
         <v>10000</v>
       </c>
-      <c r="D152" s="19">
+      <c r="D152" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E152" s="1"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
-      <c r="I152" s="18" t="e">
+      <c r="I152" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8082,14 +8084,14 @@
       <c r="C153" s="1">
         <v>10000</v>
       </c>
-      <c r="D153" s="19">
+      <c r="D153" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E153" s="1"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="18" t="e">
+      <c r="I153" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8114,14 +8116,14 @@
       <c r="C154" s="1">
         <v>10000</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E154" s="1"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="18" t="e">
+      <c r="I154" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8146,14 +8148,14 @@
       <c r="C155" s="1">
         <v>10000</v>
       </c>
-      <c r="D155" s="19">
+      <c r="D155" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E155" s="1"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="18" t="e">
+      <c r="I155" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8177,7 +8179,7 @@
       <c r="C156" s="1">
         <v>10000</v>
       </c>
-      <c r="D156" s="19">
+      <c r="D156" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-2060</v>
       </c>
@@ -8193,7 +8195,7 @@
       <c r="H156" s="3">
         <v>2</v>
       </c>
-      <c r="I156" s="18">
+      <c r="I156" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -8222,7 +8224,7 @@
       <c r="C157" s="1">
         <v>10000</v>
       </c>
-      <c r="D157" s="19">
+      <c r="D157" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>980.00000000000011</v>
       </c>
@@ -8238,7 +8240,7 @@
       <c r="H157" s="3">
         <v>1</v>
       </c>
-      <c r="I157" s="18">
+      <c r="I157" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>66.666666666666657</v>
       </c>
@@ -8265,14 +8267,14 @@
       <c r="C158" s="1">
         <v>10000</v>
       </c>
-      <c r="D158" s="19">
+      <c r="D158" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E158" s="1"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="18" t="e">
+      <c r="I158" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8296,14 +8298,14 @@
       <c r="C159" s="1">
         <v>10000</v>
       </c>
-      <c r="D159" s="19">
+      <c r="D159" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E159" s="1"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="18" t="e">
+      <c r="I159" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8328,14 +8330,14 @@
       <c r="C160" s="1">
         <v>10000</v>
       </c>
-      <c r="D160" s="19">
+      <c r="D160" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E160" s="1"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
-      <c r="I160" s="18" t="e">
+      <c r="I160" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8359,7 +8361,7 @@
       <c r="C161" s="1">
         <v>10000</v>
       </c>
-      <c r="D161" s="19">
+      <c r="D161" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-10</v>
       </c>
@@ -8375,7 +8377,7 @@
       <c r="H161" s="3">
         <v>1</v>
       </c>
-      <c r="I161" s="18">
+      <c r="I161" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -8400,14 +8402,14 @@
       <c r="C162" s="1">
         <v>10000</v>
       </c>
-      <c r="D162" s="19">
+      <c r="D162" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E162" s="1"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
-      <c r="I162" s="18" t="e">
+      <c r="I162" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8432,7 +8434,7 @@
       <c r="C163" s="1">
         <v>10000</v>
       </c>
-      <c r="D163" s="19">
+      <c r="D163" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-30</v>
       </c>
@@ -8448,7 +8450,7 @@
       <c r="H163" s="3">
         <v>1</v>
       </c>
-      <c r="I163" s="18">
+      <c r="I163" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -8473,7 +8475,7 @@
       <c r="C164" s="1">
         <v>10000</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D164" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>325</v>
       </c>
@@ -8489,7 +8491,7 @@
       <c r="H164" s="3">
         <v>1</v>
       </c>
-      <c r="I164" s="18">
+      <c r="I164" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>85.714285714285708</v>
       </c>
@@ -8518,14 +8520,14 @@
       <c r="C165" s="1">
         <v>10000</v>
       </c>
-      <c r="D165" s="19">
+      <c r="D165" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E165" s="1"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
-      <c r="I165" s="18" t="e">
+      <c r="I165" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8549,7 +8551,7 @@
       <c r="C166" s="1">
         <v>10000</v>
       </c>
-      <c r="D166" s="19">
+      <c r="D166" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>964</v>
       </c>
@@ -8565,7 +8567,7 @@
       <c r="H166" s="3">
         <v>6</v>
       </c>
-      <c r="I166" s="18">
+      <c r="I166" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>62.5</v>
       </c>
@@ -8596,14 +8598,14 @@
       <c r="C167" s="1">
         <v>10000</v>
       </c>
-      <c r="D167" s="19">
+      <c r="D167" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E167" s="1"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
-      <c r="I167" s="18" t="e">
+      <c r="I167" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8627,14 +8629,14 @@
       <c r="C168" s="1">
         <v>10000</v>
       </c>
-      <c r="D168" s="19">
+      <c r="D168" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E168" s="1"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
-      <c r="I168" s="18" t="e">
+      <c r="I168" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8659,7 +8661,7 @@
       <c r="C169" s="1">
         <v>10000</v>
       </c>
-      <c r="D169" s="19">
+      <c r="D169" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1300</v>
       </c>
@@ -8675,7 +8677,7 @@
       <c r="H169" s="3">
         <v>1</v>
       </c>
-      <c r="I169" s="18">
+      <c r="I169" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>66.666666666666657</v>
       </c>
@@ -8706,7 +8708,7 @@
       <c r="C170" s="1">
         <v>10000</v>
       </c>
-      <c r="D170" s="19">
+      <c r="D170" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-1610.0000000000002</v>
       </c>
@@ -8722,7 +8724,7 @@
       <c r="H170" s="3">
         <v>5</v>
       </c>
-      <c r="I170" s="18">
+      <c r="I170" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>44.444444444444443</v>
       </c>
@@ -8751,14 +8753,14 @@
       <c r="C171" s="1">
         <v>10000</v>
       </c>
-      <c r="D171" s="19">
+      <c r="D171" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E171" s="1"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
-      <c r="I171" s="18" t="e">
+      <c r="I171" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8783,14 +8785,14 @@
       <c r="C172" s="1">
         <v>10000</v>
       </c>
-      <c r="D172" s="19">
+      <c r="D172" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E172" s="1"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
-      <c r="I172" s="18" t="e">
+      <c r="I172" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8815,14 +8817,14 @@
       <c r="C173" s="1">
         <v>10000</v>
       </c>
-      <c r="D173" s="19">
+      <c r="D173" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E173" s="1"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
-      <c r="I173" s="18" t="e">
+      <c r="I173" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8847,7 +8849,7 @@
       <c r="C174" s="1">
         <v>10000</v>
       </c>
-      <c r="D174" s="19">
+      <c r="D174" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>700</v>
       </c>
@@ -8863,7 +8865,7 @@
       <c r="H174" s="3">
         <v>3</v>
       </c>
-      <c r="I174" s="18">
+      <c r="I174" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>62.5</v>
       </c>
@@ -8889,7 +8891,7 @@
       <c r="C175" s="1">
         <v>10000</v>
       </c>
-      <c r="D175" s="19">
+      <c r="D175" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>1340</v>
       </c>
@@ -8905,7 +8907,7 @@
       <c r="H175" s="3">
         <v>2</v>
       </c>
-      <c r="I175" s="18">
+      <c r="I175" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>71.428571428571431</v>
       </c>
@@ -8931,14 +8933,14 @@
       <c r="C176" s="1">
         <v>10000</v>
       </c>
-      <c r="D176" s="19">
+      <c r="D176" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E176" s="1"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
-      <c r="I176" s="18" t="e">
+      <c r="I176" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8963,14 +8965,14 @@
       <c r="C177" s="1">
         <v>10000</v>
       </c>
-      <c r="D177" s="19">
+      <c r="D177" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E177" s="1"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
-      <c r="I177" s="18" t="e">
+      <c r="I177" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8994,14 +8996,14 @@
       <c r="C178" s="1">
         <v>10000</v>
       </c>
-      <c r="D178" s="19">
+      <c r="D178" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E178" s="1"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
-      <c r="I178" s="18" t="e">
+      <c r="I178" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9026,14 +9028,14 @@
       <c r="C179" s="1">
         <v>10000</v>
       </c>
-      <c r="D179" s="19">
+      <c r="D179" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E179" s="1"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="I179" s="18" t="e">
+      <c r="I179" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9058,14 +9060,14 @@
       <c r="C180" s="1">
         <v>10000</v>
       </c>
-      <c r="D180" s="19">
+      <c r="D180" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E180" s="1"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-      <c r="I180" s="18" t="e">
+      <c r="I180" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9090,14 +9092,14 @@
       <c r="C181" s="1">
         <v>10000</v>
       </c>
-      <c r="D181" s="19">
+      <c r="D181" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E181" s="1"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="18" t="e">
+      <c r="I181" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9121,7 +9123,7 @@
       <c r="C182" s="1">
         <v>10000</v>
       </c>
-      <c r="D182" s="19">
+      <c r="D182" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-380</v>
       </c>
@@ -9137,7 +9139,7 @@
       <c r="H182" s="3">
         <v>2</v>
       </c>
-      <c r="I182" s="18">
+      <c r="I182" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>50</v>
       </c>
@@ -9163,7 +9165,7 @@
       <c r="C183" s="1">
         <v>10000</v>
       </c>
-      <c r="D183" s="19">
+      <c r="D183" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-990</v>
       </c>
@@ -9179,7 +9181,7 @@
       <c r="H183" s="3">
         <v>7</v>
       </c>
-      <c r="I183" s="18">
+      <c r="I183" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>53.333333333333336</v>
       </c>
@@ -9206,14 +9208,14 @@
       <c r="C184" s="1">
         <v>10000</v>
       </c>
-      <c r="D184" s="19">
+      <c r="D184" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>0</v>
       </c>
       <c r="E184" s="1"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
-      <c r="I184" s="18" t="e">
+      <c r="I184" s="20" t="e">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9238,7 +9240,7 @@
       <c r="C185" s="1">
         <v>10000</v>
       </c>
-      <c r="D185" s="19">
+      <c r="D185" s="18">
         <f>Tabla1[[#This Row],[Utilidad en unidades]]*100</f>
         <v>-3690</v>
       </c>
@@ -9254,7 +9256,7 @@
       <c r="H185" s="3">
         <v>6</v>
       </c>
-      <c r="I185" s="18">
+      <c r="I185" s="20">
         <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
         <v>40</v>
       </c>
@@ -9471,7 +9473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ACB4A5-E03C-43BF-BC7E-10435F47AF56}">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A133" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -13454,8 +13456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B4BA6A-F917-45A7-A857-70DC9C7BCC1C}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13560,7 +13562,7 @@
         <v>361</v>
       </c>
       <c r="B9" s="17">
-        <v>-1002390345649</v>
+        <v>-1002308423882</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>360</v>
@@ -13571,7 +13573,7 @@
         <v>345</v>
       </c>
       <c r="B10" s="16">
-        <v>-1002378514893</v>
+        <v>-1002305899683</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>360</v>
@@ -13581,9 +13583,7 @@
       <c r="A11" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="17">
-        <v>-1002407233853</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="14" t="s">
         <v>360</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>313</v>
       </c>
       <c r="B12" s="17">
-        <v>-1002407233853</v>
+        <v>-1002348395828</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>360</v>

--- a/excel tipstersbets.xlsx
+++ b/excel tipstersbets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{1B3D6A5F-98C5-4F0B-9399-B5E3DE00D5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F1C8B0B-F7CE-4725-A64D-2EDA6A25BDF6}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{E47A1450-D34C-40D6-BE9F-47656ACDF88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACA956B-88D5-4E85-9690-1A3381D2061E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="302">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -581,9 +581,6 @@
     <t>Codigo NBA</t>
   </si>
   <si>
-    <t>Koala picks</t>
-  </si>
-  <si>
     <t>La mera fiera tipsterschat</t>
   </si>
   <si>
@@ -897,6 +894,57 @@
   </si>
   <si>
     <t>goldpicks Los reyes</t>
+  </si>
+  <si>
+    <t>West Apuesta</t>
+  </si>
+  <si>
+    <t>King Parlays</t>
+  </si>
+  <si>
+    <t>DubClub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iluminati Monster Weekend </t>
+  </si>
+  <si>
+    <t>Stakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-0</t>
+  </si>
+  <si>
+    <t>Porcentajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-0</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-2</t>
+  </si>
+  <si>
+    <t>NFL man</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1059,6 +1107,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,7 +1412,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1414,8 +1465,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:S213" totalsRowShown="0">
-  <autoFilter ref="A1:S213" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}" name="Tabla1" displayName="Tabla1" ref="A1:S218" totalsRowShown="0">
+  <autoFilter ref="A1:S218" xr:uid="{5D953CF6-E247-49CE-AA0D-7243F72DF6EF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S192">
     <sortCondition ref="B1:B192"/>
   </sortState>
@@ -1423,12 +1474,16 @@
     <tableColumn id="1" xr3:uid="{62CA2D12-F34D-47D5-B61B-87D15D370BFE}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{696E964F-23DC-408C-B8BF-423525B34260}" name="Grupo" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{CE3FF199-C242-4555-B935-9CF153D0F6AD}" name="Bank Inicial" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{B3440BBA-D1A4-4C45-8A92-D83429F6FD77}" name="Bank Actual" dataDxfId="19">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="15" xr3:uid="{E3F4B753-D801-4387-A3A5-ED62032317F7}" name="Manejo de Bank" dataDxfId="18"/>
     <tableColumn id="9" xr3:uid="{CF983380-C43E-4E57-B305-EF7D9A7406DD}" name="Utilidad en unidades" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{242155B2-D416-412F-AF6C-91A40953129C}" name="Victorias" dataDxfId="16" dataCellStyle="Porcentaje"/>
     <tableColumn id="6" xr3:uid="{6F8E3F5A-AF02-4496-A868-535CCC9DED84}" name="Derrotas" dataDxfId="15" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="14" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{BAEFBD42-708D-4F8F-B7DB-D3FCD17C9AFB}" name="Efectividad" dataDxfId="14" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{4EC2D41C-079B-41CE-92E1-AFB17C12D63F}" name="Dias en racha" dataDxfId="13" dataCellStyle="Porcentaje"/>
     <tableColumn id="10" xr3:uid="{866A2044-8D3E-4514-816A-58D23559BF0F}" name="Futbol" dataDxfId="12" dataCellStyle="Porcentaje"/>
     <tableColumn id="11" xr3:uid="{F9CB7266-C729-4A1B-B940-2670112DE3FC}" name="Basquetball" dataDxfId="11" dataCellStyle="Porcentaje"/>
@@ -1445,8 +1500,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6C65D387-02A4-4922-854B-0717FBF387BA}" name="Tabla33" displayName="Tabla33" ref="A1:G204" totalsRowShown="0">
-  <autoFilter ref="A1:G204" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6C65D387-02A4-4922-854B-0717FBF387BA}" name="Tabla33" displayName="Tabla33" ref="A1:G209" totalsRowShown="0">
+  <autoFilter ref="A1:G209" xr:uid="{DD5F42AB-690B-4598-A006-5FC1A9C411B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G183">
     <sortCondition ref="A1:A183"/>
   </sortState>
@@ -1803,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520DF04-A293-4A29-9113-FF7BF6179FB8}">
-  <dimension ref="A1:S213"/>
+  <dimension ref="A1:S218"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1970,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
         <v>132</v>
@@ -1925,7 +1980,7 @@
       <c r="E3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1939,7 +1994,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>132</v>
@@ -1949,7 +2004,7 @@
       <c r="E4" s="1"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1971,11 +2026,25 @@
       <c r="C5" s="1">
         <v>10000</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>950</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="3"/>
+      <c r="F5">
+        <v>9.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2071,11 +2140,24 @@
       <c r="C9" s="1">
         <v>10000</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-420</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="17"/>
+      <c r="F9">
+        <v>-4.2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>50</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2134,7 +2216,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
         <v>132</v>
@@ -2144,7 +2226,7 @@
       <c r="E12" s="1"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2158,10 +2240,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="18"/>
@@ -2182,10 +2264,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="18"/>
@@ -2208,7 +2290,7 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="18"/>
@@ -2229,10 +2311,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="18"/>
@@ -2256,7 +2338,7 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="18"/>
@@ -2275,10 +2357,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="1">
         <v>10000</v>
@@ -2304,7 +2386,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="1">
         <v>10000</v>
@@ -2328,16 +2410,32 @@
         <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="1">
         <v>10000</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>612</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20">
+        <v>6.12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2353,23 +2451,42 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C21" s="1">
         <v>10000</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="17"/>
+      <c r="D21" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21">
+        <v>-13</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>33.333333333333329</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
@@ -2378,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" s="1">
         <v>10000</v>
@@ -2403,7 +2520,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="1">
         <v>10000</v>
@@ -2426,10 +2543,10 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="1">
         <v>10000</v>
@@ -2455,7 +2572,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="1">
         <v>10000</v>
@@ -2480,7 +2597,7 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" s="1">
         <v>10000</v>
@@ -2506,7 +2623,7 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="1">
         <v>10000</v>
@@ -2531,7 +2648,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" s="1">
         <v>10000</v>
@@ -2554,7 +2671,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>133</v>
@@ -2562,11 +2679,24 @@
       <c r="C29" s="1">
         <v>10000</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29">
+        <v>-10</v>
+      </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2583,7 +2713,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="1">
         <v>10000</v>
@@ -2605,10 +2735,10 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C31" s="1">
         <v>10000</v>
@@ -2634,7 +2764,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="1">
         <v>10000</v>
@@ -2659,7 +2789,7 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" s="1">
         <v>10000</v>
@@ -2682,10 +2812,10 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="1">
         <v>10000</v>
@@ -2711,7 +2841,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" s="1">
         <v>10000</v>
@@ -2736,16 +2866,29 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="1">
         <v>10000</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36">
+        <v>-10</v>
+      </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="17"/>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2758,10 +2901,10 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="1">
         <v>10000</v>
@@ -2787,7 +2930,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" s="1">
         <v>10000</v>
@@ -2812,7 +2955,7 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39" s="1">
         <v>10000</v>
@@ -2837,7 +2980,7 @@
         <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C40" s="1">
         <v>10000</v>
@@ -2863,7 +3006,7 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="1">
         <v>10000</v>
@@ -2888,7 +3031,7 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" s="1">
         <v>10000</v>
@@ -2913,7 +3056,7 @@
         <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" s="1">
         <v>10000</v>
@@ -2939,7 +3082,7 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" s="1">
         <v>10000</v>
@@ -2965,7 +3108,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="1">
         <v>10000</v>
@@ -2987,10 +3130,10 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="1">
         <v>10000</v>
@@ -3016,7 +3159,7 @@
         <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" s="1">
         <v>10000</v>
@@ -3042,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C48" s="1">
         <v>10000</v>
@@ -3067,7 +3210,7 @@
         <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C49" s="1">
         <v>10000</v>
@@ -3093,16 +3236,29 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1">
         <v>10000</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-5000</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50">
+        <v>-50</v>
+      </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="17"/>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3118,7 +3274,7 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C51" s="1">
         <v>10000</v>
@@ -3143,16 +3299,29 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C52" s="1">
         <v>10000</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52">
+        <v>-10</v>
+      </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="17"/>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -3168,7 +3337,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" s="1">
         <v>10000</v>
@@ -3190,10 +3359,10 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="1">
         <v>10000</v>
@@ -3219,7 +3388,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" s="1">
         <v>10000</v>
@@ -3244,7 +3413,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1">
         <v>10000</v>
@@ -3269,7 +3438,7 @@
         <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C57" s="1">
         <v>10000</v>
@@ -3292,10 +3461,10 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="18"/>
@@ -3316,10 +3485,10 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="18"/>
@@ -3340,10 +3509,10 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="18"/>
@@ -3367,7 +3536,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="18"/>
@@ -3387,10 +3556,10 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="18"/>
@@ -3414,7 +3583,7 @@
         <v>145</v>
       </c>
       <c r="B63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="18"/>
@@ -3438,7 +3607,7 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="18"/>
@@ -3462,7 +3631,7 @@
         <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="18"/>
@@ -3485,7 +3654,7 @@
         <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="18"/>
@@ -3509,7 +3678,7 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="18"/>
@@ -3532,7 +3701,7 @@
         <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="18"/>
@@ -3555,7 +3724,7 @@
         <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="1">
         <v>10000</v>
@@ -3581,16 +3750,29 @@
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C70" s="1">
         <v>10000</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-750</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70">
+        <v>-7.5</v>
+      </c>
       <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="17"/>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -3603,10 +3785,10 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="18"/>
@@ -3630,7 +3812,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="18"/>
@@ -3654,7 +3836,7 @@
         <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="18"/>
@@ -3678,7 +3860,7 @@
         <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="18"/>
@@ -3702,7 +3884,7 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="18"/>
@@ -3726,7 +3908,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="18"/>
@@ -3749,7 +3931,7 @@
         <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="18"/>
@@ -3772,7 +3954,7 @@
         <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="18"/>
@@ -3796,7 +3978,7 @@
         <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="18"/>
@@ -3819,7 +4001,7 @@
         <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="18"/>
@@ -3843,7 +4025,7 @@
         <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="18"/>
@@ -3867,7 +4049,7 @@
         <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="18"/>
@@ -3891,7 +4073,7 @@
         <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="18"/>
@@ -3915,14 +4097,29 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D84" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F84">
+        <v>-10</v>
+      </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="17"/>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -3935,10 +4132,10 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="18"/>
@@ -3959,10 +4156,10 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="18"/>
@@ -3986,7 +4183,7 @@
         <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="18"/>
@@ -4010,7 +4207,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="18"/>
@@ -4033,7 +4230,7 @@
         <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="18"/>
@@ -4057,7 +4254,7 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="18"/>
@@ -4080,7 +4277,7 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="18"/>
@@ -4099,10 +4296,10 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="18"/>
@@ -4122,17 +4319,17 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="18"/>
       <c r="E93" s="1"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -4228,15 +4425,34 @@
       <c r="C97" s="1">
         <v>10000</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="1"/>
-      <c r="G97" s="3"/>
+      <c r="D97" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>2080</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F97">
+        <v>20.8</v>
+      </c>
+      <c r="G97" s="3">
+        <v>4</v>
+      </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="3"/>
+      <c r="I97" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J97" s="3">
+        <v>1</v>
+      </c>
       <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -4303,10 +4519,27 @@
       <c r="C100" s="1">
         <v>10000</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="1"/>
+      <c r="D100" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>155</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F100">
+        <v>1.55</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="17"/>
+      <c r="I100" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -4344,7 +4577,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>128</v>
@@ -4402,12 +4635,32 @@
       <c r="C104" s="1">
         <v>10000</v>
       </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="1"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="17"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
+      <c r="D104" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1464</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F104">
+        <v>-14.64</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3">
+        <v>2</v>
+      </c>
+      <c r="I104" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -4450,11 +4703,24 @@
       <c r="C106" s="1">
         <v>10000</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="1"/>
+      <c r="D106" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-2000</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F106">
+        <v>-20</v>
+      </c>
       <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="17"/>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -4467,7 +4733,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>128</v>
@@ -4475,10 +4741,26 @@
       <c r="C107" s="1">
         <v>10000</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="1"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="17"/>
+      <c r="D107" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-379.00000000000006</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F107">
+        <v>-3.79</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3">
+        <v>2</v>
+      </c>
+      <c r="I107" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>33.333333333333329</v>
+      </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -4515,7 +4797,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>128</v>
@@ -4523,13 +4805,33 @@
       <c r="C109" s="1">
         <v>10000</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="1"/>
-      <c r="G109" s="3"/>
+      <c r="D109" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>2104</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F109">
+        <v>21.04</v>
+      </c>
+      <c r="G109" s="3">
+        <v>3</v>
+      </c>
       <c r="H109" s="3"/>
-      <c r="I109" s="17"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
+      <c r="I109" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
@@ -4590,7 +4892,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>128</v>
@@ -4673,10 +4975,23 @@
       <c r="C115" s="1">
         <v>10000</v>
       </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="1"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="17"/>
+      <c r="D115" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F115">
+        <v>-10</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -4689,7 +5004,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>128</v>
@@ -4723,11 +5038,24 @@
       <c r="C117" s="1">
         <v>10000</v>
       </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="1"/>
+      <c r="D117" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F117">
+        <v>-10</v>
+      </c>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="17"/>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+      <c r="I117" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -4748,10 +5076,23 @@
       <c r="C118" s="1">
         <v>10000</v>
       </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="1"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="17"/>
+      <c r="D118" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-200</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F118">
+        <v>-2</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+      <c r="I118" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -4772,13 +5113,34 @@
       <c r="C119" s="1">
         <v>10000</v>
       </c>
-      <c r="D119" s="18"/>
-      <c r="E119" s="1"/>
+      <c r="D119" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>1660</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F119">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
       <c r="H119" s="3"/>
-      <c r="I119" s="17"/>
+      <c r="I119" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
       <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
+      <c r="L119" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
@@ -4871,10 +5233,23 @@
       <c r="C123" s="1">
         <v>10000</v>
       </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="1"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="17"/>
+      <c r="D123" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F123">
+        <v>-10</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
+      <c r="I123" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -4971,10 +5346,27 @@
       <c r="C127" s="1">
         <v>10000</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="1"/>
+      <c r="D127" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>100</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
       <c r="H127" s="3"/>
-      <c r="I127" s="17"/>
+      <c r="I127" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -5037,7 +5429,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>128</v>
@@ -5045,11 +5437,24 @@
       <c r="C130" s="1">
         <v>10000</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="1"/>
+      <c r="D130" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-3700</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F130">
+        <v>-37</v>
+      </c>
       <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="17"/>
+      <c r="H130" s="3">
+        <v>3</v>
+      </c>
+      <c r="I130" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -5071,10 +5476,27 @@
       <c r="C131" s="1">
         <v>10000</v>
       </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="1"/>
+      <c r="D131" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>830</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F131">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="17"/>
+      <c r="I131" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -5095,10 +5517,27 @@
       <c r="C132" s="1">
         <v>10000</v>
       </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="1"/>
+      <c r="D132" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>930.00000000000011</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F132">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="17"/>
+      <c r="I132" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -5135,7 +5574,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>128</v>
@@ -5143,13 +5582,32 @@
       <c r="C134" s="1">
         <v>10000</v>
       </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="1"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+      <c r="D134" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>200</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" s="3">
+        <v>2</v>
+      </c>
+      <c r="H134" s="3">
+        <v>2</v>
+      </c>
+      <c r="I134" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>50</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
@@ -5157,7 +5615,9 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
+      <c r="S134" s="3" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -5169,13 +5629,35 @@
       <c r="C135" s="1">
         <v>10000</v>
       </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="1"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="17"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
+      <c r="D135" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>996.00000000000011</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F135">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3">
+        <v>2</v>
+      </c>
+      <c r="I135" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -5186,7 +5668,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>128</v>
@@ -5215,13 +5697,38 @@
       <c r="B137" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="1"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="17"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
+      <c r="C137" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D137" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>154</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F137">
+        <v>1.54</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137" s="3">
+        <v>5</v>
+      </c>
+      <c r="I137" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
@@ -5299,10 +5806,10 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B141" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="18"/>
@@ -5323,7 +5830,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>128</v>
@@ -5480,7 +5987,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>128</v>
@@ -5512,11 +6019,24 @@
       <c r="C150" s="1">
         <v>10000</v>
       </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="1"/>
-      <c r="G150" s="3"/>
+      <c r="D150" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>1281</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150">
+        <v>12.81</v>
+      </c>
+      <c r="G150" s="3">
+        <v>4</v>
+      </c>
       <c r="H150" s="3"/>
-      <c r="I150" s="17"/>
+      <c r="I150" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -5529,7 +6049,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>128</v>
@@ -5539,7 +6059,7 @@
       <c r="E151" s="1"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
+      <c r="I151" s="17"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -5561,20 +6081,41 @@
       <c r="C152" s="1">
         <v>10000</v>
       </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="1"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="17"/>
+      <c r="D152" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-308.99999999999994</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F152">
+        <v>-3.09</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+      <c r="H152" s="3">
+        <v>3</v>
+      </c>
+      <c r="I152" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>25</v>
+      </c>
       <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
+      <c r="L152" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
-      <c r="S152" s="3"/>
+      <c r="S152" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -5586,20 +6127,44 @@
       <c r="C153" s="1">
         <v>10000</v>
       </c>
-      <c r="D153" s="18"/>
-      <c r="E153" s="1"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="17"/>
+      <c r="D153" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>199</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F153">
+        <v>1.99</v>
+      </c>
+      <c r="G153" s="3">
+        <v>5</v>
+      </c>
+      <c r="H153" s="3">
+        <v>2</v>
+      </c>
+      <c r="I153" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
       <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
+      <c r="L153" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
-      <c r="S153" s="3"/>
+      <c r="S153" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -5611,11 +6176,24 @@
       <c r="C154" s="1">
         <v>10000</v>
       </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="1"/>
+      <c r="D154" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F154">
+        <v>-10</v>
+      </c>
       <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="17"/>
+      <c r="H154" s="3">
+        <v>2</v>
+      </c>
+      <c r="I154" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5637,11 +6215,24 @@
       <c r="C155" s="1">
         <v>10000</v>
       </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="1"/>
+      <c r="D155" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-200</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F155">
+        <v>-2</v>
+      </c>
       <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="17"/>
+      <c r="H155" s="3">
+        <v>2</v>
+      </c>
+      <c r="I155" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -5662,11 +6253,24 @@
       <c r="C156" s="1">
         <v>10000</v>
       </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="1"/>
+      <c r="D156" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1000</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F156">
+        <v>-10</v>
+      </c>
       <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="17"/>
+      <c r="H156" s="3">
+        <v>1</v>
+      </c>
+      <c r="I156" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -5737,11 +6341,29 @@
       <c r="C159" s="1">
         <v>10000</v>
       </c>
-      <c r="D159" s="18"/>
-      <c r="E159" s="1"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="17"/>
+      <c r="D159" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>900</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F159">
+        <v>9</v>
+      </c>
+      <c r="G159" s="3">
+        <v>3</v>
+      </c>
+      <c r="H159" s="3">
+        <v>2</v>
+      </c>
+      <c r="I159" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>60</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -5862,14 +6484,33 @@
       <c r="C164" s="1">
         <v>10000</v>
       </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="1"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="17"/>
+      <c r="D164" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-270.00000000000006</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F164">
+        <v>-2.7</v>
+      </c>
+      <c r="G164" s="3">
+        <v>2</v>
+      </c>
+      <c r="H164" s="3">
+        <v>2</v>
+      </c>
+      <c r="I164" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>50</v>
+      </c>
       <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
+      <c r="L164" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
@@ -6070,7 +6711,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>129</v>
@@ -6126,12 +6767,27 @@
       <c r="C175" s="1">
         <v>10000</v>
       </c>
-      <c r="D175" s="18"/>
-      <c r="E175" s="1"/>
-      <c r="G175" s="3"/>
+      <c r="D175" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>170</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F175">
+        <v>1.7</v>
+      </c>
+      <c r="G175" s="3">
+        <v>1</v>
+      </c>
       <c r="H175" s="3"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="5"/>
+      <c r="I175" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J175" s="5">
+        <v>1</v>
+      </c>
       <c r="K175" s="4"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -6144,7 +6800,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>129</v>
@@ -6154,7 +6810,7 @@
       <c r="E176" s="1"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
+      <c r="I176" s="17"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -6176,11 +6832,24 @@
       <c r="C177" s="1">
         <v>10000</v>
       </c>
-      <c r="D177" s="18"/>
-      <c r="E177" s="1"/>
+      <c r="D177" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-1250</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F177">
+        <v>-12.5</v>
+      </c>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="17"/>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="I177" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>0</v>
+      </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -6201,11 +6870,26 @@
       <c r="C178" s="1">
         <v>10000</v>
       </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="1"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="17"/>
+      <c r="D178" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-850.00000000000011</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F178">
+        <v>-8.5</v>
+      </c>
+      <c r="G178" s="3">
+        <v>2</v>
+      </c>
+      <c r="H178" s="3">
+        <v>3</v>
+      </c>
+      <c r="I178" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>40</v>
+      </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -6226,16 +6910,34 @@
       <c r="C179" s="1">
         <v>10000</v>
       </c>
-      <c r="D179" s="18"/>
-      <c r="E179" s="1"/>
-      <c r="G179" s="3"/>
+      <c r="D179" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>4280</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F179">
+        <v>42.8</v>
+      </c>
+      <c r="G179" s="3">
+        <v>3</v>
+      </c>
       <c r="H179" s="3"/>
-      <c r="I179" s="17"/>
+      <c r="I179" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
-      <c r="O179" s="3"/>
+      <c r="O179" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
@@ -6506,11 +7208,26 @@
       <c r="C190" s="1">
         <v>10000</v>
       </c>
-      <c r="D190" s="18"/>
-      <c r="E190" s="1"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="17"/>
+      <c r="D190" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-290</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F190">
+        <v>-2.9</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1</v>
+      </c>
+      <c r="H190" s="3">
+        <v>2</v>
+      </c>
+      <c r="I190" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>33.333333333333329</v>
+      </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -6549,7 +7266,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>133</v>
@@ -6559,7 +7276,7 @@
       <c r="E192" s="1"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
+      <c r="I192" s="17"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
@@ -6573,7 +7290,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>128</v>
@@ -6581,11 +7298,24 @@
       <c r="C193" s="1">
         <v>10000</v>
       </c>
-      <c r="D193" s="18"/>
-      <c r="E193" s="1"/>
-      <c r="G193" s="3"/>
+      <c r="D193" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>780</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F193">
+        <v>7.8</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1</v>
+      </c>
       <c r="H193" s="3"/>
-      <c r="I193" s="17"/>
+      <c r="I193" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
@@ -6599,7 +7329,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>128</v>
@@ -6611,7 +7341,7 @@
       <c r="E194" s="1"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
+      <c r="I194" s="17"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
@@ -6625,7 +7355,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>133</v>
@@ -6637,7 +7367,7 @@
       <c r="E195" s="1"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
+      <c r="I195" s="17"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -6651,17 +7381,19 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C196" s="1"/>
+      <c r="C196" s="1">
+        <v>10000</v>
+      </c>
       <c r="D196" s="18"/>
       <c r="E196" s="1"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
+      <c r="I196" s="17"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
@@ -6675,17 +7407,19 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C197" s="1"/>
+      <c r="C197" s="1">
+        <v>10000</v>
+      </c>
       <c r="D197" s="18"/>
       <c r="E197" s="1"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
+      <c r="I197" s="17"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -6699,17 +7433,19 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C198" s="1"/>
+      <c r="C198" s="1">
+        <v>10000</v>
+      </c>
       <c r="D198" s="18"/>
       <c r="E198" s="1"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
+      <c r="I198" s="17"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -6723,17 +7459,19 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C199" s="1"/>
+      <c r="C199" s="1">
+        <v>10000</v>
+      </c>
       <c r="D199" s="18"/>
       <c r="E199" s="1"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
+      <c r="I199" s="17"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -6747,17 +7485,19 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="1">
+        <v>10000</v>
+      </c>
       <c r="D200" s="18"/>
       <c r="E200" s="1"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
+      <c r="I200" s="17"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
@@ -6771,17 +7511,19 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C201" s="1"/>
+      <c r="C201" s="1">
+        <v>10000</v>
+      </c>
       <c r="D201" s="18"/>
       <c r="E201" s="1"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
+      <c r="I201" s="17"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -6795,17 +7537,19 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C202" s="1"/>
+      <c r="C202" s="1">
+        <v>10000</v>
+      </c>
       <c r="D202" s="18"/>
       <c r="E202" s="1"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
+      <c r="I202" s="17"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -6819,17 +7563,19 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="1">
+        <v>10000</v>
+      </c>
       <c r="D203" s="18"/>
       <c r="E203" s="1"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
+      <c r="I203" s="17"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
@@ -6843,17 +7589,19 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C204" s="1"/>
+      <c r="C204" s="1">
+        <v>10000</v>
+      </c>
       <c r="D204" s="18"/>
       <c r="E204" s="1"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
+      <c r="I204" s="17"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
@@ -6872,12 +7620,14 @@
       <c r="B205" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C205" s="1"/>
+      <c r="C205" s="1">
+        <v>10000</v>
+      </c>
       <c r="D205" s="18"/>
       <c r="E205" s="1"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
+      <c r="I205" s="17"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -6891,17 +7641,19 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C206" s="1"/>
+      <c r="C206" s="1">
+        <v>10000</v>
+      </c>
       <c r="D206" s="18"/>
       <c r="E206" s="1"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
+      <c r="I206" s="17"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -6915,17 +7667,19 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C207" s="1"/>
+      <c r="C207" s="1">
+        <v>10000</v>
+      </c>
       <c r="D207" s="18"/>
       <c r="E207" s="1"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
+      <c r="I207" s="17"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
@@ -6939,17 +7693,19 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C208" s="1"/>
+      <c r="C208" s="1">
+        <v>10000</v>
+      </c>
       <c r="D208" s="18"/>
       <c r="E208" s="1"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
+      <c r="I208" s="17"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
@@ -6963,17 +7719,19 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C209" s="1"/>
+      <c r="C209" s="1">
+        <v>10000</v>
+      </c>
       <c r="D209" s="18"/>
       <c r="E209" s="1"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
+      <c r="I209" s="17"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
@@ -6987,17 +7745,19 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C210" s="1"/>
+      <c r="C210" s="1">
+        <v>10000</v>
+      </c>
       <c r="D210" s="18"/>
       <c r="E210" s="1"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
+      <c r="I210" s="17"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
@@ -7011,17 +7771,19 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C211" s="1"/>
+      <c r="C211" s="1">
+        <v>10000</v>
+      </c>
       <c r="D211" s="18"/>
       <c r="E211" s="1"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
+      <c r="I211" s="17"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
@@ -7043,35 +7805,56 @@
       <c r="C212" s="1">
         <v>10000</v>
       </c>
-      <c r="D212" s="18"/>
-      <c r="E212" s="1"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="17"/>
+      <c r="D212" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-20</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F212">
+        <v>-0.2</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
+      <c r="I212" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>50</v>
+      </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
+      <c r="L212" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="M212" s="3"/>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
-      <c r="S212" s="3"/>
+      <c r="S212" s="3" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C213" s="1"/>
+      <c r="C213" s="1">
+        <v>10000</v>
+      </c>
       <c r="D213" s="18"/>
       <c r="E213" s="1"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
+      <c r="I213" s="17"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
@@ -7082,6 +7865,177 @@
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
       <c r="S213" s="3"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>285</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C214" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D214" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>-880.00000000000011</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F214">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="G214" s="3">
+        <v>2</v>
+      </c>
+      <c r="H214" s="3">
+        <v>2</v>
+      </c>
+      <c r="I214" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>50</v>
+      </c>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3"/>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>286</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C215" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D215" s="18">
+        <f>(Tabla1[[#This Row],[Utilidad en unidades]]/100)*10000</f>
+        <v>4810</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F215">
+        <v>48.1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>5</v>
+      </c>
+      <c r="H215" s="3"/>
+      <c r="I215" s="17">
+        <f>((Tabla1[[#This Row],[Victorias]]/(Tabla1[[#This Row],[Victorias]]+Tabla1[[#This Row],[Derrotas]]))*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J215" s="3">
+        <v>1</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>287</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C216" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D216" s="18"/>
+      <c r="E216" s="1"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="17"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>288</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C217" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D217" s="18"/>
+      <c r="E217" s="1"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C218" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D218" s="18"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7095,10 +8049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ACB4A5-E03C-43BF-BC7E-10435F47AF56}">
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A180" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7119,19 +8073,19 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -7139,22 +8093,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -7162,22 +8116,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -7185,22 +8139,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -7208,22 +8162,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -7231,22 +8185,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -7254,22 +8208,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -7277,22 +8231,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -7300,22 +8254,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -7323,22 +8277,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -7346,22 +8300,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -7370,22 +8324,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -7394,22 +8348,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" t="s">
         <v>143</v>
@@ -7417,22 +8371,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -7440,22 +8394,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -7463,22 +8417,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -7486,48 +8440,48 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -7535,22 +8489,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -7558,22 +8512,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -7581,22 +8535,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
         <v>83</v>
@@ -7604,22 +8558,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
         <v>64</v>
@@ -7627,22 +8581,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
         <v>84</v>
@@ -7650,45 +8604,45 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
         <v>164</v>
@@ -7696,22 +8650,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -7719,22 +8673,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -7742,22 +8696,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
         <v>126</v>
@@ -7766,22 +8720,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
         <v>134</v>
@@ -7789,22 +8743,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -7812,22 +8766,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
         <v>61</v>
@@ -7835,22 +8789,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
         <v>111</v>
@@ -7858,22 +8812,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
         <v>118</v>
@@ -7881,22 +8835,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
         <v>89</v>
@@ -7904,22 +8858,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G35" t="s">
         <v>91</v>
@@ -7927,22 +8881,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
@@ -7950,22 +8904,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" t="s">
         <v>93</v>
@@ -7973,22 +8927,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -7996,45 +8950,45 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -8042,22 +8996,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
         <v>135</v>
@@ -8065,22 +9019,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -8088,45 +9042,45 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
         <v>124</v>
@@ -8134,22 +9088,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G45" t="s">
         <v>42</v>
@@ -8157,22 +9111,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G46" t="s">
         <v>100</v>
@@ -8180,22 +9134,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G47" t="s">
         <v>101</v>
@@ -8203,22 +9157,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G48" t="s">
         <v>103</v>
@@ -8226,22 +9180,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G49" t="s">
         <v>106</v>
@@ -8249,22 +9203,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G50" t="s">
         <v>122</v>
@@ -8272,22 +9226,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G51" t="s">
         <v>43</v>
@@ -8295,22 +9249,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -8318,22 +9272,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G53" t="s">
         <v>82</v>
@@ -8341,22 +9295,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G54" t="s">
         <v>123</v>
@@ -8364,22 +9318,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" t="s">
         <v>120</v>
@@ -8387,22 +9341,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G56" t="s">
         <v>44</v>
@@ -8410,22 +9364,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G57" t="s">
         <v>107</v>
@@ -8433,45 +9387,45 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G59" t="s">
         <v>136</v>
@@ -8479,22 +9433,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G60" t="s">
         <v>108</v>
@@ -8502,22 +9456,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G61" t="s">
         <v>81</v>
@@ -8525,22 +9479,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G62" t="s">
         <v>92</v>
@@ -8548,22 +9502,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G63" t="s">
         <v>137</v>
@@ -8571,22 +9525,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G64" t="s">
         <v>139</v>
@@ -8594,22 +9548,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G65" t="s">
         <v>138</v>
@@ -8617,22 +9571,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
@@ -8640,22 +9594,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G67" t="s">
         <v>110</v>
@@ -8663,22 +9617,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G68" t="s">
         <v>116</v>
@@ -8686,22 +9640,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G69" t="s">
         <v>62</v>
@@ -8709,22 +9663,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G70" t="s">
         <v>119</v>
@@ -8732,19 +9686,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G71" t="s">
         <v>142</v>
@@ -8752,19 +9706,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G72" t="s">
         <v>66</v>
@@ -8772,19 +9726,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G73" t="s">
         <v>154</v>
@@ -8792,19 +9746,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G74" t="s">
         <v>63</v>
@@ -8812,19 +9766,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G75" t="s">
         <v>67</v>
@@ -8832,68 +9786,68 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G78" t="s">
         <v>90</v>
@@ -8901,22 +9855,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G79" t="s">
         <v>115</v>
@@ -8924,85 +9878,85 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -9010,22 +9964,22 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" t="s">
         <v>208</v>
-      </c>
-      <c r="B84" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" t="s">
-        <v>282</v>
-      </c>
-      <c r="E84" t="s">
-        <v>205</v>
-      </c>
-      <c r="F84" t="s">
-        <v>209</v>
       </c>
       <c r="G84" t="s">
         <v>125</v>
@@ -9033,45 +9987,45 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G86" t="s">
         <v>113</v>
@@ -9079,39 +10033,39 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G88" t="s">
         <v>99</v>
@@ -9119,59 +10073,59 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G91" t="s">
         <v>179</v>
@@ -9179,19 +10133,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G92" t="s">
         <v>53</v>
@@ -9199,40 +10153,40 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I93" s="12"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G94" t="s">
         <v>141</v>
@@ -9240,39 +10194,39 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G96" t="s">
         <v>58</v>
@@ -9280,19 +10234,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G97" t="s">
         <v>49</v>
@@ -9300,19 +10254,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G98" t="s">
         <v>47</v>
@@ -9320,59 +10274,59 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D101" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G101" t="s">
         <v>60</v>
@@ -9380,19 +10334,19 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G102" t="s">
         <v>72</v>
@@ -9400,19 +10354,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G103" t="s">
         <v>87</v>
@@ -9420,19 +10374,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G104" t="s">
         <v>97</v>
@@ -9440,19 +10394,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G105" t="s">
         <v>102</v>
@@ -9460,19 +10414,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G106" t="s">
         <v>59</v>
@@ -9480,19 +10434,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G107" t="s">
         <v>94</v>
@@ -9500,19 +10454,19 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G108" t="s">
         <v>26</v>
@@ -9520,19 +10474,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G109" t="s">
         <v>69</v>
@@ -9540,39 +10494,39 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G111" t="s">
         <v>55</v>
@@ -9580,19 +10534,19 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G112" t="s">
         <v>54</v>
@@ -9600,19 +10554,19 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D113" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -9620,19 +10574,19 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G114" t="s">
         <v>65</v>
@@ -9640,19 +10594,19 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G115" t="s">
         <v>157</v>
@@ -9660,19 +10614,19 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G116" t="s">
         <v>177</v>
@@ -9680,19 +10634,19 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G117" t="s">
         <v>30</v>
@@ -9700,19 +10654,19 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G118" t="s">
         <v>48</v>
@@ -9720,19 +10674,19 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G119" t="s">
         <v>31</v>
@@ -9740,39 +10694,39 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G121" t="s">
         <v>57</v>
@@ -9780,19 +10734,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D122" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -9800,59 +10754,59 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D123" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D124" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G124" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G125" t="s">
         <v>45</v>
@@ -9861,19 +10815,19 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -9881,39 +10835,39 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D127" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G128" t="s">
         <v>46</v>
@@ -9921,19 +10875,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G129" t="s">
         <v>51</v>
@@ -9941,39 +10895,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D130" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G131" t="s">
         <v>153</v>
@@ -9981,19 +10935,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F132" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G132" t="s">
         <v>50</v>
@@ -10001,19 +10955,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G133" t="s">
         <v>37</v>
@@ -10021,19 +10975,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D134" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G134" t="s">
         <v>38</v>
@@ -10041,19 +10995,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G135" t="s">
         <v>71</v>
@@ -10061,19 +11015,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G136" t="s">
         <v>140</v>
@@ -10081,19 +11035,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D137" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G137" t="s">
         <v>52</v>
@@ -10101,19 +11055,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G138" t="s">
         <v>56</v>
@@ -10121,59 +11075,59 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D139" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F139" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D140" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G140" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D141" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -10181,19 +11135,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -10201,43 +11155,43 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D143" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G143" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="C144" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G144" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="C145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D145" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G145" t="s">
         <v>173</v>
@@ -10246,34 +11200,34 @@
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="C146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="C147" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D147" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="C148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D148" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G148" t="s">
         <v>165</v>
@@ -10282,10 +11236,10 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="C149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D149" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G149" t="s">
         <v>156</v>
@@ -10294,10 +11248,10 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="C150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D150" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G150" t="s">
         <v>166</v>
@@ -10306,10 +11260,10 @@
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="C151" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D151" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G151" t="s">
         <v>172</v>
@@ -10318,22 +11272,22 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="C152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D152" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G152" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="C153" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G153" t="s">
         <v>167</v>
@@ -10342,33 +11296,33 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="C154" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D155" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G155" t="s">
         <v>85</v>
@@ -10377,10 +11331,10 @@
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="C156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D156" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G156" t="s">
         <v>155</v>
@@ -10389,19 +11343,19 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F157" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G157" t="s">
         <v>112</v>
@@ -10410,46 +11364,57 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="C158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G158" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
+      <c r="A159" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>212</v>
+      </c>
       <c r="C159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D159" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="E159" t="s">
+        <v>211</v>
+      </c>
+      <c r="F159" t="s">
+        <v>210</v>
       </c>
       <c r="G159" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="C160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D161" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G161" t="s">
         <v>174</v>
@@ -10458,10 +11423,10 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="C162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D162" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G162" t="s">
         <v>121</v>
@@ -10470,7 +11435,7 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="D163" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G163" t="s">
         <v>145</v>
@@ -10479,7 +11444,7 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="D164" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G164" t="s">
         <v>117</v>
@@ -10488,7 +11453,7 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="D165" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G165" t="s">
         <v>105</v>
@@ -10497,7 +11462,7 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="D166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G166" t="s">
         <v>95</v>
@@ -10506,7 +11471,7 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="D167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G167" t="s">
         <v>150</v>
@@ -10515,7 +11480,7 @@
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="D168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G168" t="s">
         <v>104</v>
@@ -10524,7 +11489,7 @@
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="D169" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G169" t="s">
         <v>149</v>
@@ -10533,7 +11498,7 @@
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="D170" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G170" t="s">
         <v>148</v>
@@ -10542,7 +11507,7 @@
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="D171" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G171" t="s">
         <v>147</v>
@@ -10551,7 +11516,7 @@
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="D172" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G172" t="s">
         <v>146</v>
@@ -10560,7 +11525,7 @@
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="D173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G173" t="s">
         <v>151</v>
@@ -10569,7 +11534,7 @@
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="D174" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G174" t="s">
         <v>152</v>
@@ -10578,7 +11543,7 @@
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="D175" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G175" t="s">
         <v>158</v>
@@ -10587,7 +11552,7 @@
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="D176" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G176" t="s">
         <v>109</v>
@@ -10596,7 +11561,7 @@
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="D177" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G177" t="s">
         <v>178</v>
@@ -10605,7 +11570,7 @@
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="D178" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G178" t="s">
         <v>144</v>
@@ -10614,10 +11579,10 @@
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="C179" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F179" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G179" t="s">
         <v>76</v>
@@ -10626,10 +11591,10 @@
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="C180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F180" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G180" t="s">
         <v>77</v>
@@ -10638,10 +11603,10 @@
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="C181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F181" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G181" t="s">
         <v>78</v>
@@ -10650,10 +11615,10 @@
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="C182" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F182" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G182" t="s">
         <v>79</v>
@@ -10662,10 +11627,10 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="C183" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F183" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G183" t="s">
         <v>80</v>
@@ -10673,174 +11638,174 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B184" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C184" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D184" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E184" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F184" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G184" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="C185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G185" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D186" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G186" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="C187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D187" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G187" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="C188" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D188" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="C189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D189" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G189" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="C190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D190" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G190" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D191" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G191" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D192" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G192" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="C193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D193" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G193" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D194" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G194" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="C195" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D195" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G195" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="C196" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D196" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G196" t="s">
         <v>149</v>
@@ -10849,93 +11814,93 @@
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="C197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D197" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G197" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D198" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G198" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="C199" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D199" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G199" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="C200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D200" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G200" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="C201" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D201" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G201" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="C202" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D202" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G202" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D203" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G203" t="s">
         <v>68</v>
@@ -10943,25 +11908,92 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>220</v>
+      </c>
+      <c r="C204" t="s">
+        <v>219</v>
+      </c>
+      <c r="D204" t="s">
+        <v>280</v>
+      </c>
+      <c r="E204" t="s">
+        <v>204</v>
+      </c>
+      <c r="F204" t="s">
+        <v>208</v>
+      </c>
+      <c r="G204" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B204" t="s">
-        <v>221</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+      <c r="D205" t="s">
+        <v>282</v>
+      </c>
+      <c r="E205" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205" t="s">
+        <v>203</v>
+      </c>
+      <c r="G205" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="11"/>
+      <c r="G206" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="11"/>
+      <c r="G207" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
         <v>220</v>
       </c>
-      <c r="D204" t="s">
-        <v>281</v>
-      </c>
-      <c r="E204" t="s">
-        <v>205</v>
-      </c>
-      <c r="F204" t="s">
-        <v>209</v>
-      </c>
-      <c r="G204" t="s">
+      <c r="D208" t="s">
         <v>280</v>
+      </c>
+      <c r="E208" t="s">
+        <v>204</v>
+      </c>
+      <c r="F208" t="s">
+        <v>208</v>
+      </c>
+      <c r="G208" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+      <c r="B209" s="21"/>
+      <c r="C209" t="s">
+        <v>219</v>
+      </c>
+      <c r="D209" t="s">
+        <v>280</v>
+      </c>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -10978,7 +12010,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11038,7 +12070,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="7">
         <v>-1002271470605</v>
@@ -11046,7 +12078,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="7">
         <v>-1002139886828</v>
@@ -11069,7 +12101,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11084,252 +12116,254 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="15">
         <v>-1002105211537</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="16">
         <v>-1001957612350</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="15">
         <v>-1002018254333</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="16">
         <v>-1002088477755</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>-1002408374756</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>-1002334970116</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8">
         <v>-1002420439647</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="16">
         <v>-1002308423882</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="15">
         <v>-1002305899683</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="16"/>
+        <v>209</v>
+      </c>
+      <c r="B11" s="16">
+        <v>-1002276990714</v>
+      </c>
       <c r="C11" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="16">
         <v>-1002348395828</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="15">
         <v>-1002248753359</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" s="16">
         <v>-1002176404296</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="15">
         <v>-1002194314767</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="16">
         <v>-1002148496811</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="15">
         <v>-1002253956689</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="14">
         <v>-1002273029470</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="14">
         <v>-1002322215761</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="14">
         <v>-1002426461312</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="14">
         <v>-1002496590323</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="14">
-        <v>-1002387965315</v>
+        <v>-1002390358046</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="15">
-        <v>-1002361153876</v>
+        <v>-1002387965315</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/excel tipstersbets.xlsx
+++ b/excel tipstersbets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f683495e44b5ec27/Escritorio/Bot de Telegram pruebas/TipstersBet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{E47A1450-D34C-40D6-BE9F-47656ACDF88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACA956B-88D5-4E85-9690-1A3381D2061E}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{E47A1450-D34C-40D6-BE9F-47656ACDF88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A76E0958-8772-44C2-B8BD-E1665C4798F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82C55E5E-F1BC-465D-82D5-745F580A18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipsters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="302">
   <si>
     <t>Bank Inicial</t>
   </si>
@@ -1082,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1107,9 +1107,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8011,7 +8008,7 @@
       <c r="S217" s="3"/>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A218" s="21" t="s">
+      <c r="A218" t="s">
         <v>301</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -8022,7 +8019,6 @@
       </c>
       <c r="D218" s="18"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="22"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="17"/>
@@ -8051,8 +8047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ACB4A5-E03C-43BF-BC7E-10435F47AF56}">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9691,6 +9687,9 @@
       <c r="B71" t="s">
         <v>205</v>
       </c>
+      <c r="C71" t="s">
+        <v>209</v>
+      </c>
       <c r="D71" t="s">
         <v>282</v>
       </c>
@@ -9711,6 +9710,9 @@
       <c r="B72" t="s">
         <v>205</v>
       </c>
+      <c r="C72" t="s">
+        <v>209</v>
+      </c>
       <c r="D72" t="s">
         <v>282</v>
       </c>
@@ -9731,6 +9733,9 @@
       <c r="B73" t="s">
         <v>205</v>
       </c>
+      <c r="C73" t="s">
+        <v>209</v>
+      </c>
       <c r="D73" t="s">
         <v>282</v>
       </c>
@@ -9751,6 +9756,9 @@
       <c r="B74" t="s">
         <v>205</v>
       </c>
+      <c r="C74" t="s">
+        <v>209</v>
+      </c>
       <c r="D74" t="s">
         <v>282</v>
       </c>
@@ -9771,6 +9779,9 @@
       <c r="B75" t="s">
         <v>205</v>
       </c>
+      <c r="C75" t="s">
+        <v>209</v>
+      </c>
       <c r="D75" t="s">
         <v>282</v>
       </c>
@@ -9929,6 +9940,9 @@
       <c r="B82" t="s">
         <v>212</v>
       </c>
+      <c r="C82" t="s">
+        <v>209</v>
+      </c>
       <c r="D82" t="s">
         <v>280</v>
       </c>
@@ -9949,6 +9963,9 @@
       <c r="B83" t="s">
         <v>205</v>
       </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
       <c r="D83" t="s">
         <v>282</v>
       </c>
@@ -10038,6 +10055,9 @@
       <c r="B87" t="s">
         <v>205</v>
       </c>
+      <c r="C87" t="s">
+        <v>209</v>
+      </c>
       <c r="D87" t="s">
         <v>282</v>
       </c>
@@ -10058,6 +10078,9 @@
       <c r="B88" t="s">
         <v>205</v>
       </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
       <c r="D88" t="s">
         <v>280</v>
       </c>
@@ -10078,6 +10101,9 @@
       <c r="B89" t="s">
         <v>205</v>
       </c>
+      <c r="C89" t="s">
+        <v>209</v>
+      </c>
       <c r="D89" t="s">
         <v>282</v>
       </c>
@@ -10098,6 +10124,9 @@
       <c r="B90" t="s">
         <v>205</v>
       </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
       <c r="D90" t="s">
         <v>282</v>
       </c>
@@ -10118,6 +10147,9 @@
       <c r="B91" t="s">
         <v>205</v>
       </c>
+      <c r="C91" t="s">
+        <v>209</v>
+      </c>
       <c r="D91" t="s">
         <v>282</v>
       </c>
@@ -10138,6 +10170,9 @@
       <c r="B92" t="s">
         <v>205</v>
       </c>
+      <c r="C92" t="s">
+        <v>209</v>
+      </c>
       <c r="D92" t="s">
         <v>282</v>
       </c>
@@ -10158,6 +10193,9 @@
       <c r="B93" t="s">
         <v>205</v>
       </c>
+      <c r="C93" t="s">
+        <v>209</v>
+      </c>
       <c r="D93" t="s">
         <v>282</v>
       </c>
@@ -10179,6 +10217,9 @@
       <c r="B94" t="s">
         <v>205</v>
       </c>
+      <c r="C94" t="s">
+        <v>209</v>
+      </c>
       <c r="D94" t="s">
         <v>282</v>
       </c>
@@ -10199,6 +10240,9 @@
       <c r="B95" t="s">
         <v>205</v>
       </c>
+      <c r="C95" t="s">
+        <v>209</v>
+      </c>
       <c r="D95" t="s">
         <v>282</v>
       </c>
@@ -10219,6 +10263,9 @@
       <c r="B96" t="s">
         <v>205</v>
       </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
       <c r="D96" t="s">
         <v>282</v>
       </c>
@@ -10239,6 +10286,9 @@
       <c r="B97" t="s">
         <v>205</v>
       </c>
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
       <c r="D97" t="s">
         <v>282</v>
       </c>
@@ -10259,6 +10309,9 @@
       <c r="B98" t="s">
         <v>205</v>
       </c>
+      <c r="C98" t="s">
+        <v>209</v>
+      </c>
       <c r="D98" t="s">
         <v>282</v>
       </c>
@@ -10279,6 +10332,9 @@
       <c r="B99" t="s">
         <v>205</v>
       </c>
+      <c r="C99" t="s">
+        <v>209</v>
+      </c>
       <c r="D99" t="s">
         <v>282</v>
       </c>
@@ -10299,6 +10355,9 @@
       <c r="B100" t="s">
         <v>205</v>
       </c>
+      <c r="C100" t="s">
+        <v>209</v>
+      </c>
       <c r="D100" t="s">
         <v>282</v>
       </c>
@@ -10319,6 +10378,9 @@
       <c r="B101" t="s">
         <v>205</v>
       </c>
+      <c r="C101" t="s">
+        <v>209</v>
+      </c>
       <c r="D101" t="s">
         <v>282</v>
       </c>
@@ -10339,6 +10401,9 @@
       <c r="B102" t="s">
         <v>205</v>
       </c>
+      <c r="C102" t="s">
+        <v>209</v>
+      </c>
       <c r="D102" t="s">
         <v>282</v>
       </c>
@@ -10359,6 +10424,9 @@
       <c r="B103" t="s">
         <v>205</v>
       </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
       <c r="D103" t="s">
         <v>280</v>
       </c>
@@ -10379,6 +10447,9 @@
       <c r="B104" t="s">
         <v>205</v>
       </c>
+      <c r="C104" t="s">
+        <v>209</v>
+      </c>
       <c r="D104" t="s">
         <v>280</v>
       </c>
@@ -10399,6 +10470,9 @@
       <c r="B105" t="s">
         <v>205</v>
       </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
       <c r="D105" t="s">
         <v>280</v>
       </c>
@@ -10419,6 +10493,9 @@
       <c r="B106" t="s">
         <v>205</v>
       </c>
+      <c r="C106" t="s">
+        <v>209</v>
+      </c>
       <c r="D106" t="s">
         <v>280</v>
       </c>
@@ -10439,6 +10516,9 @@
       <c r="B107" t="s">
         <v>205</v>
       </c>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
       <c r="D107" t="s">
         <v>280</v>
       </c>
@@ -10459,6 +10539,9 @@
       <c r="B108" t="s">
         <v>205</v>
       </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
       <c r="D108" t="s">
         <v>282</v>
       </c>
@@ -10479,6 +10562,9 @@
       <c r="B109" t="s">
         <v>205</v>
       </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
       <c r="D109" t="s">
         <v>282</v>
       </c>
@@ -10499,6 +10585,9 @@
       <c r="B110" t="s">
         <v>205</v>
       </c>
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
       <c r="D110" t="s">
         <v>282</v>
       </c>
@@ -10519,6 +10608,9 @@
       <c r="B111" t="s">
         <v>205</v>
       </c>
+      <c r="C111" t="s">
+        <v>209</v>
+      </c>
       <c r="D111" t="s">
         <v>282</v>
       </c>
@@ -10539,6 +10631,9 @@
       <c r="B112" t="s">
         <v>205</v>
       </c>
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
       <c r="D112" t="s">
         <v>282</v>
       </c>
@@ -10559,6 +10654,9 @@
       <c r="B113" t="s">
         <v>205</v>
       </c>
+      <c r="C113" t="s">
+        <v>209</v>
+      </c>
       <c r="D113" t="s">
         <v>282</v>
       </c>
@@ -10579,6 +10677,9 @@
       <c r="B114" t="s">
         <v>205</v>
       </c>
+      <c r="C114" t="s">
+        <v>209</v>
+      </c>
       <c r="D114" t="s">
         <v>282</v>
       </c>
@@ -10599,6 +10700,9 @@
       <c r="B115" t="s">
         <v>205</v>
       </c>
+      <c r="C115" t="s">
+        <v>209</v>
+      </c>
       <c r="D115" t="s">
         <v>282</v>
       </c>
@@ -10619,6 +10723,9 @@
       <c r="B116" t="s">
         <v>205</v>
       </c>
+      <c r="C116" t="s">
+        <v>209</v>
+      </c>
       <c r="D116" t="s">
         <v>282</v>
       </c>
@@ -10639,6 +10746,9 @@
       <c r="B117" t="s">
         <v>205</v>
       </c>
+      <c r="C117" t="s">
+        <v>209</v>
+      </c>
       <c r="D117" t="s">
         <v>282</v>
       </c>
@@ -10659,6 +10769,9 @@
       <c r="B118" t="s">
         <v>205</v>
       </c>
+      <c r="C118" t="s">
+        <v>209</v>
+      </c>
       <c r="D118" t="s">
         <v>282</v>
       </c>
@@ -10679,6 +10792,9 @@
       <c r="B119" t="s">
         <v>205</v>
       </c>
+      <c r="C119" t="s">
+        <v>209</v>
+      </c>
       <c r="D119" t="s">
         <v>282</v>
       </c>
@@ -10699,6 +10815,9 @@
       <c r="B120" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="C120" t="s">
+        <v>209</v>
+      </c>
       <c r="D120" t="s">
         <v>282</v>
       </c>
@@ -10719,6 +10838,9 @@
       <c r="B121" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="C121" t="s">
+        <v>209</v>
+      </c>
       <c r="D121" t="s">
         <v>282</v>
       </c>
@@ -10739,6 +10861,9 @@
       <c r="B122" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="C122" t="s">
+        <v>209</v>
+      </c>
       <c r="D122" t="s">
         <v>282</v>
       </c>
@@ -10759,6 +10884,9 @@
       <c r="B123" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="C123" t="s">
+        <v>209</v>
+      </c>
       <c r="D123" t="s">
         <v>282</v>
       </c>
@@ -10779,6 +10907,9 @@
       <c r="B124" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="C124" t="s">
+        <v>209</v>
+      </c>
       <c r="D124" t="s">
         <v>282</v>
       </c>
@@ -10799,6 +10930,9 @@
       <c r="B125" t="s">
         <v>205</v>
       </c>
+      <c r="C125" t="s">
+        <v>209</v>
+      </c>
       <c r="D125" t="s">
         <v>282</v>
       </c>
@@ -10820,6 +10954,9 @@
       <c r="B126" t="s">
         <v>205</v>
       </c>
+      <c r="C126" t="s">
+        <v>209</v>
+      </c>
       <c r="D126" t="s">
         <v>282</v>
       </c>
@@ -10840,6 +10977,9 @@
       <c r="B127" t="s">
         <v>205</v>
       </c>
+      <c r="C127" t="s">
+        <v>209</v>
+      </c>
       <c r="D127" t="s">
         <v>282</v>
       </c>
@@ -10860,6 +11000,9 @@
       <c r="B128" t="s">
         <v>205</v>
       </c>
+      <c r="C128" t="s">
+        <v>209</v>
+      </c>
       <c r="D128" t="s">
         <v>282</v>
       </c>
@@ -10880,6 +11023,9 @@
       <c r="B129" t="s">
         <v>205</v>
       </c>
+      <c r="C129" t="s">
+        <v>209</v>
+      </c>
       <c r="D129" t="s">
         <v>282</v>
       </c>
@@ -10900,6 +11046,9 @@
       <c r="B130" t="s">
         <v>205</v>
       </c>
+      <c r="C130" t="s">
+        <v>209</v>
+      </c>
       <c r="D130" t="s">
         <v>282</v>
       </c>
@@ -10920,6 +11069,9 @@
       <c r="B131" t="s">
         <v>205</v>
       </c>
+      <c r="C131" t="s">
+        <v>209</v>
+      </c>
       <c r="D131" t="s">
         <v>282</v>
       </c>
@@ -10940,6 +11092,9 @@
       <c r="B132" t="s">
         <v>205</v>
       </c>
+      <c r="C132" t="s">
+        <v>209</v>
+      </c>
       <c r="D132" t="s">
         <v>282</v>
       </c>
@@ -10960,6 +11115,9 @@
       <c r="B133" t="s">
         <v>205</v>
       </c>
+      <c r="C133" t="s">
+        <v>209</v>
+      </c>
       <c r="D133" t="s">
         <v>282</v>
       </c>
@@ -10980,6 +11138,9 @@
       <c r="B134" t="s">
         <v>205</v>
       </c>
+      <c r="C134" t="s">
+        <v>209</v>
+      </c>
       <c r="D134" t="s">
         <v>282</v>
       </c>
@@ -11000,6 +11161,9 @@
       <c r="B135" t="s">
         <v>205</v>
       </c>
+      <c r="C135" t="s">
+        <v>209</v>
+      </c>
       <c r="D135" t="s">
         <v>282</v>
       </c>
@@ -11020,6 +11184,9 @@
       <c r="B136" t="s">
         <v>205</v>
       </c>
+      <c r="C136" t="s">
+        <v>209</v>
+      </c>
       <c r="D136" t="s">
         <v>282</v>
       </c>
@@ -11040,6 +11207,9 @@
       <c r="B137" t="s">
         <v>205</v>
       </c>
+      <c r="C137" t="s">
+        <v>209</v>
+      </c>
       <c r="D137" t="s">
         <v>282</v>
       </c>
@@ -11060,6 +11230,9 @@
       <c r="B138" t="s">
         <v>205</v>
       </c>
+      <c r="C138" t="s">
+        <v>209</v>
+      </c>
       <c r="D138" t="s">
         <v>282</v>
       </c>
@@ -11080,6 +11253,9 @@
       <c r="B139" t="s">
         <v>205</v>
       </c>
+      <c r="C139" t="s">
+        <v>209</v>
+      </c>
       <c r="D139" t="s">
         <v>282</v>
       </c>
@@ -11100,6 +11276,9 @@
       <c r="B140" t="s">
         <v>205</v>
       </c>
+      <c r="C140" t="s">
+        <v>209</v>
+      </c>
       <c r="D140" t="s">
         <v>282</v>
       </c>
@@ -11120,6 +11299,9 @@
       <c r="B141" t="s">
         <v>205</v>
       </c>
+      <c r="C141" t="s">
+        <v>209</v>
+      </c>
       <c r="D141" t="s">
         <v>282</v>
       </c>
@@ -11140,6 +11322,9 @@
       <c r="B142" t="s">
         <v>205</v>
       </c>
+      <c r="C142" t="s">
+        <v>209</v>
+      </c>
       <c r="D142" t="s">
         <v>282</v>
       </c>
@@ -11159,6 +11344,9 @@
       </c>
       <c r="B143" t="s">
         <v>205</v>
+      </c>
+      <c r="C143" t="s">
+        <v>209</v>
       </c>
       <c r="D143" t="s">
         <v>282</v>
@@ -11434,6 +11622,9 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
+      <c r="C163" t="s">
+        <v>209</v>
+      </c>
       <c r="D163" t="s">
         <v>282</v>
       </c>
@@ -11443,6 +11634,9 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
+      <c r="C164" t="s">
+        <v>209</v>
+      </c>
       <c r="D164" t="s">
         <v>280</v>
       </c>
@@ -11452,6 +11646,9 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
+      <c r="C165" t="s">
+        <v>209</v>
+      </c>
       <c r="D165" t="s">
         <v>280</v>
       </c>
@@ -11461,6 +11658,9 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
+      <c r="C166" t="s">
+        <v>209</v>
+      </c>
       <c r="D166" t="s">
         <v>280</v>
       </c>
@@ -11470,6 +11670,9 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
+      <c r="C167" t="s">
+        <v>209</v>
+      </c>
       <c r="D167" t="s">
         <v>282</v>
       </c>
@@ -11479,6 +11682,9 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
+      <c r="C168" t="s">
+        <v>209</v>
+      </c>
       <c r="D168" t="s">
         <v>280</v>
       </c>
@@ -11488,6 +11694,9 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
+      <c r="C169" t="s">
+        <v>209</v>
+      </c>
       <c r="D169" t="s">
         <v>282</v>
       </c>
@@ -11497,6 +11706,9 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
+      <c r="C170" t="s">
+        <v>209</v>
+      </c>
       <c r="D170" t="s">
         <v>282</v>
       </c>
@@ -11506,6 +11718,9 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
+      <c r="C171" t="s">
+        <v>209</v>
+      </c>
       <c r="D171" t="s">
         <v>282</v>
       </c>
@@ -11515,6 +11730,9 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
+      <c r="C172" t="s">
+        <v>209</v>
+      </c>
       <c r="D172" t="s">
         <v>282</v>
       </c>
@@ -11524,6 +11742,9 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
+      <c r="C173" t="s">
+        <v>209</v>
+      </c>
       <c r="D173" t="s">
         <v>282</v>
       </c>
@@ -11533,6 +11754,9 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
+      <c r="C174" t="s">
+        <v>209</v>
+      </c>
       <c r="D174" t="s">
         <v>282</v>
       </c>
@@ -11542,6 +11766,9 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
+      <c r="C175" t="s">
+        <v>209</v>
+      </c>
       <c r="D175" t="s">
         <v>282</v>
       </c>
@@ -11551,6 +11778,9 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
+      <c r="C176" t="s">
+        <v>209</v>
+      </c>
       <c r="D176" t="s">
         <v>280</v>
       </c>
@@ -11560,6 +11790,9 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
+      <c r="C177" t="s">
+        <v>209</v>
+      </c>
       <c r="D177" t="s">
         <v>282</v>
       </c>
@@ -11569,6 +11802,9 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
+      <c r="C178" t="s">
+        <v>209</v>
+      </c>
       <c r="D178" t="s">
         <v>282</v>
       </c>
@@ -11678,6 +11914,9 @@
       <c r="B186" t="s">
         <v>205</v>
       </c>
+      <c r="C186" t="s">
+        <v>209</v>
+      </c>
       <c r="D186" t="s">
         <v>282</v>
       </c>
@@ -11936,6 +12175,9 @@
       <c r="B205" t="s">
         <v>205</v>
       </c>
+      <c r="C205" t="s">
+        <v>209</v>
+      </c>
       <c r="D205" t="s">
         <v>282</v>
       </c>
@@ -11951,12 +12193,18 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
+      <c r="C206" t="s">
+        <v>209</v>
+      </c>
       <c r="G206" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
+      <c r="C207" t="s">
+        <v>209</v>
+      </c>
       <c r="G207" t="s">
         <v>287</v>
       </c>
@@ -11968,6 +12216,9 @@
       <c r="B208" t="s">
         <v>220</v>
       </c>
+      <c r="C208" t="s">
+        <v>219</v>
+      </c>
       <c r="D208" t="s">
         <v>280</v>
       </c>
@@ -11982,17 +12233,14 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
-      <c r="B209" s="21"/>
+      <c r="A209" s="11"/>
       <c r="C209" t="s">
         <v>219</v>
       </c>
       <c r="D209" t="s">
         <v>280</v>
       </c>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="21" t="s">
+      <c r="G209" t="s">
         <v>301</v>
       </c>
     </row>
@@ -12100,8 +12348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B4BA6A-F917-45A7-A857-70DC9C7BCC1C}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
